--- a/data/TradeRES_D2_1_Scenario_data_Corrected.xlsx
+++ b/data/TradeRES_D2_1_Scenario_data_Corrected.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFA4FE8-E8C4-4D92-975B-03B12AEC7E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53879218-67B4-48A5-8682-EB063203A1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="785" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="370" windowWidth="19200" windowHeight="10430" tabRatio="785" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -18,17 +18,17 @@
     <sheet name="Scenarios" sheetId="2" r:id="rId3"/>
     <sheet name="Emission_prices" sheetId="6" r:id="rId4"/>
     <sheet name="Commodity_prices (2)" sheetId="15" r:id="rId5"/>
-    <sheet name="New_technology_data" sheetId="8" r:id="rId6"/>
-    <sheet name="New_transmission_data" sheetId="9" r:id="rId7"/>
-    <sheet name="Wind_potential" sheetId="11" r:id="rId8"/>
-    <sheet name="Biomass_potential" sheetId="10" r:id="rId9"/>
-    <sheet name="technologyPotentials" sheetId="16" r:id="rId10"/>
+    <sheet name="technologyPotentials" sheetId="16" r:id="rId6"/>
+    <sheet name="Biomass_potential" sheetId="10" r:id="rId7"/>
+    <sheet name="New_technology_data" sheetId="8" r:id="rId8"/>
+    <sheet name="New_transmission_data" sheetId="9" r:id="rId9"/>
+    <sheet name="Wind_potential" sheetId="11" r:id="rId10"/>
     <sheet name="Solar_potential" sheetId="12" r:id="rId11"/>
     <sheet name="Transmission_capacities" sheetId="13" r:id="rId12"/>
     <sheet name="Generation_capacities" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">New_technology_data!$A$1:$BI$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">New_technology_data!$A$1:$BI$138</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -49,6 +49,33 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={83CCD862-1323-4D9B-9E87-F514D78ADD27}</author>
+    <author>tc={9203EDA1-ECBE-4012-8077-3BF3A58A45DF}</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{83CCD862-1323-4D9B-9E87-F514D78ADD27}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    original name was biogas</t>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="1" shapeId="0" xr:uid="{9203EDA1-ECBE-4012-8077-3BF3A58A45DF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    original name was Solid Biomass</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Helistö Niina</author>
@@ -82,7 +109,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={78CAD986-7849-4E13-880C-52DCAE95F489}</author>
@@ -1505,9 +1532,6 @@
     <t>UK</t>
   </si>
   <si>
-    <t>Biogas</t>
-  </si>
-  <si>
     <t>TWh</t>
   </si>
   <si>
@@ -1515,9 +1539,6 @@
   </si>
   <si>
     <t>no crops</t>
-  </si>
-  <si>
-    <t>Solid Biomass</t>
   </si>
   <si>
     <t>Biogas (Manure, Sewage Sludge) no crops</t>
@@ -1985,6 +2006,12 @@
   </si>
   <si>
     <t>PV_utility_systems</t>
+  </si>
+  <si>
+    <t>biomethane</t>
+  </si>
+  <si>
+    <t>biomass</t>
   </si>
 </sst>
 </file>
@@ -2865,6 +2892,17 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A3" dT="2022-07-14T09:03:11.68" personId="{99080569-BF4E-4A29-A2C6-B03208CDF96C}" id="{83CCD862-1323-4D9B-9E87-F514D78ADD27}">
+    <text>original name was biogas</text>
+  </threadedComment>
+  <threadedComment ref="A8" dT="2022-07-14T09:03:37.58" personId="{99080569-BF4E-4A29-A2C6-B03208CDF96C}" id="{9203EDA1-ECBE-4012-8077-3BF3A58A45DF}">
+    <text>original name was Solid Biomass</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="B3" dT="2022-04-13T10:58:01.50" personId="{99080569-BF4E-4A29-A2C6-B03208CDF96C}" id="{78CAD986-7849-4E13-880C-52DCAE95F489}">
     <text>classified by Ingrid</text>
   </threadedComment>
@@ -3156,89 +3194,806 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F6D851-D12C-45E6-B678-140A0114FC2D}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AS10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.58203125" customWidth="1"/>
+    <col min="4" max="6" width="8.58203125" customWidth="1"/>
+    <col min="42" max="45" width="15.58203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
-        <f>Wind_potential!B2</f>
-        <v>traderesTechnology</v>
-      </c>
-      <c r="B1" t="str">
-        <f>Wind_potential!C2</f>
-        <v>Unit</v>
-      </c>
-      <c r="C1" t="str">
-        <f>Wind_potential!N2</f>
-        <v>DE</v>
-      </c>
-      <c r="D1" t="str">
-        <f>Wind_potential!W2</f>
-        <v>NL</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>Wind_potential!B3</f>
-        <v>WTG_onshore</v>
-      </c>
-      <c r="B2" t="str">
-        <f>Wind_potential!C3</f>
-        <v>GW</v>
-      </c>
-      <c r="C2">
-        <f>Wind_potential!N3</f>
+    <row r="1" spans="1:45" s="27" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D1" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="U1" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="X1" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y1" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z1" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA1" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB1" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="AC1" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="AD1" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE1" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF1" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="AG1" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="AH1" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="AI1" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="AJ1" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="AK1" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="AL1" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="AM1" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="AN1" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="AP1" s="59" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ1" s="59" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR1" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="AS1" s="59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" s="48" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>611</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>424</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>466</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>429</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="M2" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="N2" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="O2" s="48" t="s">
+        <v>433</v>
+      </c>
+      <c r="P2" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q2" s="48" t="s">
+        <v>435</v>
+      </c>
+      <c r="R2" s="48" t="s">
+        <v>436</v>
+      </c>
+      <c r="S2" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="T2" s="48" t="s">
+        <v>467</v>
+      </c>
+      <c r="U2" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="V2" s="48" t="s">
+        <v>438</v>
+      </c>
+      <c r="W2" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="X2" s="48" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y2" s="48" t="s">
+        <v>441</v>
+      </c>
+      <c r="Z2" s="48" t="s">
+        <v>442</v>
+      </c>
+      <c r="AA2" s="48" t="s">
+        <v>443</v>
+      </c>
+      <c r="AB2" s="48" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC2" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="AD2" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="AE2" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="AF2" s="48" t="s">
+        <v>448</v>
+      </c>
+      <c r="AG2" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="AH2" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="AI2" s="48" t="s">
+        <v>451</v>
+      </c>
+      <c r="AJ2" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="AK2" s="48" t="s">
+        <v>453</v>
+      </c>
+      <c r="AL2" s="48" t="s">
+        <v>454</v>
+      </c>
+      <c r="AM2" s="48" t="s">
+        <v>455</v>
+      </c>
+      <c r="AN2" s="48" t="s">
+        <v>456</v>
+      </c>
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+    </row>
+    <row r="3" spans="1:45" s="38" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>612</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="D3" s="38">
+        <v>5.9277311929999996</v>
+      </c>
+      <c r="E3" s="38">
+        <v>2.1997291969999999</v>
+      </c>
+      <c r="F3" s="38">
+        <v>6.2951871659999998</v>
+      </c>
+      <c r="G3" s="38">
+        <v>6.9488544890000004</v>
+      </c>
+      <c r="H3" s="38">
+        <v>0</v>
+      </c>
+      <c r="I3" s="38">
+        <v>38.420576016999995</v>
+      </c>
+      <c r="J3" s="38">
+        <v>54.669999999999995</v>
+      </c>
+      <c r="K3" s="38">
+        <v>20.522405229</v>
+      </c>
+      <c r="L3" s="38">
+        <v>19.732288789999998</v>
+      </c>
+      <c r="M3" s="38">
+        <v>550.36595464199991</v>
+      </c>
+      <c r="N3" s="38">
         <v>42.191125290999999</v>
       </c>
-      <c r="D2">
-        <f>Wind_potential!W3</f>
+      <c r="O3" s="38">
+        <v>102.344410838</v>
+      </c>
+      <c r="P3" s="38">
+        <v>12.700797691</v>
+      </c>
+      <c r="Q3" s="38">
+        <v>146.5</v>
+      </c>
+      <c r="R3" s="38">
+        <v>64.533586133</v>
+      </c>
+      <c r="S3" s="38">
+        <v>60.058632353</v>
+      </c>
+      <c r="T3" s="38">
+        <v>111.245754476</v>
+      </c>
+      <c r="U3" s="38">
+        <v>0</v>
+      </c>
+      <c r="V3" s="38">
+        <v>3.7723528999999999E-2</v>
+      </c>
+      <c r="W3" s="38">
         <v>43.336125919000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>Wind_potential!B4</f>
-        <v>WTG_offshore</v>
-      </c>
-      <c r="B3">
-        <f>Wind_potential!C4</f>
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f>Wind_potential!N4</f>
+      <c r="X3" s="38">
+        <v>78.77191075799999</v>
+      </c>
+      <c r="Y3" s="42">
+        <v>5.1598039709999997</v>
+      </c>
+      <c r="Z3" s="38">
+        <v>29.214642775000002</v>
+      </c>
+      <c r="AA3" s="38">
+        <v>14.168210658</v>
+      </c>
+      <c r="AB3" s="38">
+        <v>0.366633761</v>
+      </c>
+      <c r="AC3" s="38">
+        <v>321.44443629400007</v>
+      </c>
+      <c r="AD3" s="38">
+        <v>109.76137360599998</v>
+      </c>
+      <c r="AN3" s="38">
+        <v>220.19681822100011</v>
+      </c>
+      <c r="AP3" s="58" t="s">
+        <v>471</v>
+      </c>
+      <c r="AQ3" s="58" t="s">
+        <v>469</v>
+      </c>
+      <c r="AR3" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="AS3" s="58" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>613</v>
+      </c>
+      <c r="D4">
+        <f>SUM(D5:D7)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:T4" si="0">SUM(E5:E7)</f>
+        <v>1.85</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>27.31</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>1.28</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>21.265000000000001</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>15.645</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
         <v>27.84</v>
       </c>
-      <c r="D3">
-        <f>Wind_potential!W4</f>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>3.4090000000000003</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>14.969999999999999</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>2.9400000000000004</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4" si="1">SUM(U5:U7)</f>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4" si="2">SUM(V5:V7)</f>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4" si="3">SUM(W5:W7)</f>
         <v>47.744999999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f>Solar_potential!B3</f>
-        <v>PV_utility_systems</v>
-      </c>
-      <c r="B4" t="str">
-        <f>Solar_potential!C3</f>
-        <v>GW_e</v>
-      </c>
-      <c r="C4">
-        <f>Solar_potential!O3</f>
-        <v>727.66187999999977</v>
-      </c>
-      <c r="D4">
-        <f>Solar_potential!X3</f>
-        <v>89.050080000000008</v>
-      </c>
+      <c r="X4">
+        <f t="shared" ref="X4" si="4">SUM(X5:X7)</f>
+        <v>12.31</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" ref="Y4" si="5">SUM(Y5:Y7)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" ref="Z4" si="6">SUM(Z5:Z7)</f>
+        <v>8.7650000000000006</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ref="AA4" si="7">SUM(AA5:AA7)</f>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" ref="AB4" si="8">SUM(AB5:AB7)</f>
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" ref="AC4" si="9">SUM(AC5:AC7)</f>
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" ref="AD4" si="10">SUM(AD5:AD7)</f>
+        <v>31.035</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" ref="AE4" si="11">SUM(AE5:AE7)</f>
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ref="AF4" si="12">SUM(AF5:AF7)</f>
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ref="AG4" si="13">SUM(AG5:AG7)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ref="AH4" si="14">SUM(AH5:AH7)</f>
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" ref="AI4:AJ4" si="15">SUM(AI5:AI7)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" ref="AK4" si="16">SUM(AK5:AK7)</f>
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" ref="AL4" si="17">SUM(AL5:AL7)</f>
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" ref="AM4" si="18">SUM(AM5:AM7)</f>
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" ref="AN4" si="19">SUM(AN5:AN7)</f>
+        <v>103.60499999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="49" t="s">
+        <v>471</v>
+      </c>
+      <c r="AQ5" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="AR5" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="AS5" s="49" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C6" t="s">
+        <v>470</v>
+      </c>
+      <c r="E6">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.435</v>
+      </c>
+      <c r="G6">
+        <v>2.0819999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>22.33</v>
+      </c>
+      <c r="K6">
+        <v>1.2</v>
+      </c>
+      <c r="L6">
+        <v>15.065</v>
+      </c>
+      <c r="M6">
+        <v>13.9</v>
+      </c>
+      <c r="N6">
+        <v>17.55</v>
+      </c>
+      <c r="O6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Q6">
+        <v>0.99</v>
+      </c>
+      <c r="R6">
+        <v>2.9950000000000001</v>
+      </c>
+      <c r="S6">
+        <v>12.77</v>
+      </c>
+      <c r="T6">
+        <v>2.5550000000000002</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>41.674999999999997</v>
+      </c>
+      <c r="X6">
+        <v>6.57</v>
+      </c>
+      <c r="Y6" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>8.75</v>
+      </c>
+      <c r="AC6">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="AD6">
+        <v>21.05</v>
+      </c>
+      <c r="AN6">
+        <v>56.945</v>
+      </c>
+      <c r="AP6" s="49" t="s">
+        <v>471</v>
+      </c>
+      <c r="AQ6" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="AR6" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="AS6" s="49" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>477</v>
+      </c>
+      <c r="C7" t="s">
+        <v>470</v>
+      </c>
+      <c r="E7">
+        <v>1.7050000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.01</v>
+      </c>
+      <c r="G7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="K7">
+        <v>0.08</v>
+      </c>
+      <c r="L7">
+        <v>6.2</v>
+      </c>
+      <c r="M7">
+        <v>1.7450000000000001</v>
+      </c>
+      <c r="N7">
+        <v>10.29</v>
+      </c>
+      <c r="O7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="S7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T7">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>6.07</v>
+      </c>
+      <c r="X7">
+        <v>5.74</v>
+      </c>
+      <c r="Y7" s="42">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Z7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AC7">
+        <v>0.105</v>
+      </c>
+      <c r="AD7">
+        <v>9.9849999999999994</v>
+      </c>
+      <c r="AN7">
+        <v>46.66</v>
+      </c>
+      <c r="AP7" s="49" t="s">
+        <v>471</v>
+      </c>
+      <c r="AQ7" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="AR7" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="AS7" s="49" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="Y8" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="AP8" s="49"/>
+      <c r="AQ8" s="49"/>
+      <c r="AR8" s="49"/>
+      <c r="AS8" s="49"/>
+    </row>
+    <row r="10" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3249,23 +4004,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AO29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D1" s="27" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>385</v>
@@ -3381,7 +4136,7 @@
     </row>
     <row r="2" spans="1:41" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>105</v>
@@ -3390,7 +4145,7 @@
         <v>72</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>423</v>
@@ -3405,7 +4160,7 @@
         <v>426</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J2" s="48" t="s">
         <v>427</v>
@@ -3441,10 +4196,10 @@
         <v>437</v>
       </c>
       <c r="U2" s="48" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="V2" s="48" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="W2" s="48" t="s">
         <v>438</v>
@@ -3504,39 +4259,39 @@
     <row r="3" spans="1:41" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
       <c r="B3" s="27" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C3" s="27" t="str">
         <f>C4</f>
         <v>GW_e</v>
       </c>
       <c r="E3" s="48">
-        <f>E18+E19</f>
-        <v>125.88585000000002</v>
+        <f>E18+E19+E20+E21</f>
+        <v>126.61260000000001</v>
       </c>
       <c r="F3" s="48">
-        <f t="shared" ref="F3:AO3" si="0">F18+F19</f>
-        <v>67.636709999999994</v>
+        <f t="shared" ref="F3:AE3" si="0">F18+F19+F20+F21</f>
+        <v>76.918199999999999</v>
       </c>
       <c r="G3" s="48">
         <f t="shared" si="0"/>
-        <v>268.18299338386538</v>
+        <v>280.81619999999992</v>
       </c>
       <c r="H3" s="48">
         <f t="shared" si="0"/>
-        <v>77.182929832546591</v>
+        <v>89.127600000000015</v>
       </c>
       <c r="I3" s="48">
         <f t="shared" si="0"/>
-        <v>6.8436784524438057</v>
+        <v>21.975900000000003</v>
       </c>
       <c r="J3" s="48">
         <f t="shared" si="0"/>
-        <v>193.9781273533394</v>
+        <v>197.68110000000001</v>
       </c>
       <c r="K3" s="48">
         <f t="shared" si="0"/>
-        <v>133.70108999999999</v>
+        <v>137.98560000000001</v>
       </c>
       <c r="L3" s="48">
         <f t="shared" si="0"/>
@@ -3548,19 +4303,19 @@
       </c>
       <c r="N3" s="48">
         <f t="shared" si="0"/>
-        <v>1414.431064982022</v>
+        <v>1491.6020999999996</v>
       </c>
       <c r="O3" s="48">
         <f t="shared" si="0"/>
-        <v>727.66187999999977</v>
+        <v>796.91069999999979</v>
       </c>
       <c r="P3" s="48">
         <f t="shared" si="0"/>
-        <v>203.98631107925885</v>
+        <v>289.49640000000005</v>
       </c>
       <c r="Q3" s="48">
         <f t="shared" si="0"/>
-        <v>267.08281387320216</v>
+        <v>297.279</v>
       </c>
       <c r="R3" s="48">
         <f t="shared" si="0"/>
@@ -3568,7 +4323,7 @@
       </c>
       <c r="S3" s="48">
         <f t="shared" si="0"/>
-        <v>686.48571853497265</v>
+        <v>749.62349999999992</v>
       </c>
       <c r="T3" s="48">
         <f t="shared" si="0"/>
@@ -3576,7 +4331,7 @@
       </c>
       <c r="U3" s="48">
         <f t="shared" si="0"/>
-        <v>153.38425523741006</v>
+        <v>179.28540000000001</v>
       </c>
       <c r="V3" s="48">
         <f t="shared" si="0"/>
@@ -3588,19 +4343,19 @@
       </c>
       <c r="X3" s="48">
         <f t="shared" si="0"/>
-        <v>89.050080000000008</v>
+        <v>96.145200000000003</v>
       </c>
       <c r="Y3" s="48">
         <f t="shared" si="0"/>
-        <v>787.98955822288633</v>
+        <v>802.19940000000031</v>
       </c>
       <c r="Z3" s="48">
         <f t="shared" si="0"/>
-        <v>153.77513822073462</v>
+        <v>160.87950000000001</v>
       </c>
       <c r="AA3" s="48">
         <f t="shared" si="0"/>
-        <v>712.0355108660433</v>
+        <v>713.11259999999993</v>
       </c>
       <c r="AB3" s="48">
         <f t="shared" si="0"/>
@@ -3612,62 +4367,62 @@
       </c>
       <c r="AD3" s="48">
         <f t="shared" si="0"/>
-        <v>1186.0487187687911</v>
+        <v>1217.9105999999999</v>
       </c>
       <c r="AE3" s="48">
         <f t="shared" si="0"/>
-        <v>116.45650163624637</v>
+        <v>117.25919999999999</v>
       </c>
       <c r="AF3" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AF3:AO3" si="1">AF18+AF19</f>
         <v>0</v>
       </c>
       <c r="AG3" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH3" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI3" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ3" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK3" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL3" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM3" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AN3" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AO3" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>532.33239000000003</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C4" t="s">
         <v>483</v>
-      </c>
-      <c r="B4" t="s">
-        <v>484</v>
-      </c>
-      <c r="C4" t="s">
-        <v>485</v>
       </c>
       <c r="D4">
         <v>83.358411258484253</v>
@@ -3759,13 +4514,13 @@
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D5">
         <v>55.572274172322857</v>
@@ -3857,13 +4612,13 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D6">
         <v>55.572274172322857</v>
@@ -3955,13 +4710,13 @@
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D7">
         <v>87.200833916861399</v>
@@ -4053,13 +4808,13 @@
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D8">
         <v>108.11289204611367</v>
@@ -4151,13 +4906,13 @@
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D9">
         <v>108.11289204611367</v>
@@ -4249,13 +5004,13 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D10">
         <v>108.11289204611367</v>
@@ -4347,13 +5102,13 @@
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D11">
         <v>36.898581201562457</v>
@@ -4445,13 +5200,13 @@
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D12">
         <v>24.599054134374978</v>
@@ -4543,13 +5298,13 @@
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B13" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C13" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D13">
         <v>24.599054134374978</v>
@@ -4641,13 +5396,13 @@
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D14">
         <v>286.98896490104136</v>
@@ -4739,13 +5494,13 @@
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C15" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D15">
         <v>66.429096579612903</v>
@@ -4837,13 +5592,13 @@
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B16" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D16">
         <v>66.429096579612903</v>
@@ -4935,13 +5690,13 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D17">
         <v>66.429096579612903</v>
@@ -5033,13 +5788,13 @@
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B18" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C18" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D18">
         <v>597.97241330150575</v>
@@ -5131,13 +5886,13 @@
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B19" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C19" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D19">
         <v>7866.8325071422569</v>
@@ -5229,13 +5984,13 @@
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B20" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C20" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D20">
         <v>25.568886698494342</v>
@@ -5327,13 +6082,13 @@
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D21">
         <v>458.14739285774277</v>
@@ -5534,91 +6289,91 @@
   <sheetData>
     <row r="1" spans="1:15" s="27" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="54" t="s">
         <v>505</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="D1" s="54" t="s">
         <v>506</v>
-      </c>
-      <c r="C1" s="54" t="s">
-        <v>507</v>
-      </c>
-      <c r="D1" s="54" t="s">
-        <v>508</v>
       </c>
       <c r="E1" s="54" t="s">
         <v>72</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G1" s="80"/>
       <c r="H1" s="78" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I1" s="78"/>
       <c r="J1" s="78" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K1" s="78"/>
       <c r="L1" s="78" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M1" s="78"/>
       <c r="N1" s="78" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="O1" s="78"/>
     </row>
     <row r="2" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="56" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I2" s="57" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J2" s="56" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K2" s="57" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L2" s="56" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N2" s="56" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="O2" s="57" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C3" t="s">
         <v>517</v>
-      </c>
-      <c r="B3" t="s">
-        <v>518</v>
-      </c>
-      <c r="C3" t="s">
-        <v>519</v>
       </c>
       <c r="D3" t="s">
         <v>396</v>
@@ -5659,13 +6414,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B4" t="s">
         <v>449</v>
       </c>
       <c r="C4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D4" t="s">
         <v>414</v>
@@ -5706,13 +6461,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B5" t="s">
         <v>451</v>
       </c>
       <c r="C5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D5" t="s">
         <v>416</v>
@@ -5753,13 +6508,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B6" t="s">
         <v>453</v>
       </c>
       <c r="C6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D6" t="s">
         <v>418</v>
@@ -5950,7 +6705,7 @@
         <v>385</v>
       </c>
       <c r="D10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E10" t="s">
         <v>363</v>
@@ -5991,7 +6746,7 @@
         <v>423</v>
       </c>
       <c r="B11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C11" t="s">
         <v>385</v>
@@ -6082,13 +6837,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B13" t="s">
         <v>426</v>
       </c>
       <c r="C13" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D13" t="s">
         <v>388</v>
@@ -6129,13 +6884,13 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B14" t="s">
         <v>449</v>
       </c>
       <c r="C14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D14" t="s">
         <v>414</v>
@@ -6176,13 +6931,13 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B15" t="s">
         <v>453</v>
       </c>
       <c r="C15" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D15" t="s">
         <v>418</v>
@@ -6320,13 +7075,13 @@
         <v>424</v>
       </c>
       <c r="B18" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C18" t="s">
         <v>386</v>
       </c>
       <c r="D18" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E18" t="s">
         <v>363</v>
@@ -6367,7 +7122,7 @@
         <v>424</v>
       </c>
       <c r="B19" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C19" t="s">
         <v>386</v>
@@ -6414,7 +7169,7 @@
         <v>424</v>
       </c>
       <c r="B20" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C20" t="s">
         <v>386</v>
@@ -6508,7 +7263,7 @@
         <v>425</v>
       </c>
       <c r="B22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C22" t="s">
         <v>387</v>
@@ -6696,13 +7451,13 @@
         <v>425</v>
       </c>
       <c r="B26" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C26" t="s">
         <v>387</v>
       </c>
       <c r="D26" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E26" t="s">
         <v>363</v>
@@ -6837,7 +7592,7 @@
         <v>447</v>
       </c>
       <c r="B29" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C29" t="s">
         <v>412</v>
@@ -6881,10 +7636,10 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B30" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C30" t="s">
         <v>389</v>
@@ -6978,7 +7733,7 @@
         <v>427</v>
       </c>
       <c r="B32" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C32" t="s">
         <v>390</v>
@@ -7025,7 +7780,7 @@
         <v>427</v>
       </c>
       <c r="B33" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C33" t="s">
         <v>390</v>
@@ -7119,7 +7874,7 @@
         <v>432</v>
       </c>
       <c r="B35" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C35" t="s">
         <v>395</v>
@@ -7166,7 +7921,7 @@
         <v>432</v>
       </c>
       <c r="B36" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C36" t="s">
         <v>395</v>
@@ -7213,7 +7968,7 @@
         <v>432</v>
       </c>
       <c r="B37" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C37" t="s">
         <v>395</v>
@@ -7307,13 +8062,13 @@
         <v>432</v>
       </c>
       <c r="B39" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C39" t="s">
         <v>395</v>
       </c>
       <c r="D39" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E39" t="s">
         <v>363</v>
@@ -7351,10 +8106,10 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B40" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C40" t="s">
         <v>395</v>
@@ -7401,7 +8156,7 @@
         <v>432</v>
       </c>
       <c r="B41" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C41" t="s">
         <v>395</v>
@@ -7448,7 +8203,7 @@
         <v>432</v>
       </c>
       <c r="B42" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C42" t="s">
         <v>395</v>
@@ -7542,7 +8297,7 @@
         <v>432</v>
       </c>
       <c r="B44" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C44" t="s">
         <v>395</v>
@@ -7589,7 +8344,7 @@
         <v>432</v>
       </c>
       <c r="B45" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C45" t="s">
         <v>395</v>
@@ -7636,7 +8391,7 @@
         <v>432</v>
       </c>
       <c r="B46" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C46" t="s">
         <v>395</v>
@@ -7683,7 +8438,7 @@
         <v>432</v>
       </c>
       <c r="B47" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C47" t="s">
         <v>395</v>
@@ -7727,10 +8482,10 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>530</v>
+      </c>
+      <c r="B48" t="s">
         <v>532</v>
-      </c>
-      <c r="B48" t="s">
-        <v>534</v>
       </c>
       <c r="C48" t="s">
         <v>391</v>
@@ -7774,10 +8529,10 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B49" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C49" t="s">
         <v>391</v>
@@ -7821,7 +8576,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B50" t="s">
         <v>440</v>
@@ -7868,10 +8623,10 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B51" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C51" t="s">
         <v>391</v>
@@ -7915,16 +8670,16 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B52" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C52" t="s">
         <v>391</v>
       </c>
       <c r="D52" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E52" t="s">
         <v>363</v>
@@ -7962,7 +8717,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B53" t="s">
         <v>439</v>
@@ -8009,10 +8764,10 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B54" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C54" t="s">
         <v>391</v>
@@ -8056,10 +8811,10 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B55" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C55" t="s">
         <v>391</v>
@@ -8294,7 +9049,7 @@
         <v>430</v>
       </c>
       <c r="B60" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C60" t="s">
         <v>393</v>
@@ -8341,7 +9096,7 @@
         <v>430</v>
       </c>
       <c r="B61" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C61" t="s">
         <v>393</v>
@@ -8388,7 +9143,7 @@
         <v>430</v>
       </c>
       <c r="B62" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C62" t="s">
         <v>393</v>
@@ -8435,7 +9190,7 @@
         <v>430</v>
       </c>
       <c r="B63" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C63" t="s">
         <v>393</v>
@@ -8479,10 +9234,10 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B64" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C64" t="s">
         <v>394</v>
@@ -8529,13 +9284,13 @@
         <v>431</v>
       </c>
       <c r="B65" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C65" t="s">
         <v>394</v>
       </c>
       <c r="D65" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E65" t="s">
         <v>363</v>
@@ -8623,7 +9378,7 @@
         <v>431</v>
       </c>
       <c r="B67" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C67" t="s">
         <v>394</v>
@@ -8670,7 +9425,7 @@
         <v>431</v>
       </c>
       <c r="B68" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C68" t="s">
         <v>394</v>
@@ -8714,13 +9469,13 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B69" t="s">
         <v>435</v>
       </c>
       <c r="C69" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D69" t="s">
         <v>398</v>
@@ -8761,16 +9516,16 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B70" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C70" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D70" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E70" t="s">
         <v>363</v>
@@ -8808,13 +9563,13 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B71" t="s">
         <v>439</v>
       </c>
       <c r="C71" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D71" t="s">
         <v>404</v>
@@ -8855,13 +9610,13 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B72" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C72" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D72" t="s">
         <v>417</v>
@@ -8902,10 +9657,10 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B73" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C73" t="s">
         <v>396</v>
@@ -8949,7 +9704,7 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B74" t="s">
         <v>451</v>
@@ -8996,16 +9751,16 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B75" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C75" t="s">
         <v>396</v>
       </c>
       <c r="D75" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E75" t="s">
         <v>363</v>
@@ -9052,7 +9807,7 @@
         <v>388</v>
       </c>
       <c r="D76" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E76" t="s">
         <v>363</v>
@@ -9190,7 +9945,7 @@
         <v>442</v>
       </c>
       <c r="C79" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D79" t="s">
         <v>407</v>
@@ -9237,7 +9992,7 @@
         <v>453</v>
       </c>
       <c r="C80" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D80" t="s">
         <v>418</v>
@@ -9284,7 +10039,7 @@
         <v>444</v>
       </c>
       <c r="C81" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D81" t="s">
         <v>409</v>
@@ -9331,7 +10086,7 @@
         <v>443</v>
       </c>
       <c r="C82" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D82" t="s">
         <v>408</v>
@@ -9375,13 +10130,13 @@
         <v>435</v>
       </c>
       <c r="B83" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C83" t="s">
         <v>398</v>
       </c>
       <c r="D83" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E83" t="s">
         <v>363</v>
@@ -9419,10 +10174,10 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B84" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C84" t="s">
         <v>399</v>
@@ -9466,10 +10221,10 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B85" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C85" t="s">
         <v>399</v>
@@ -9513,10 +10268,10 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B86" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C86" t="s">
         <v>399</v>
@@ -9560,10 +10315,10 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B87" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C87" t="s">
         <v>399</v>
@@ -9607,10 +10362,10 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B88" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C88" t="s">
         <v>399</v>
@@ -9654,10 +10409,10 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B89" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C89" t="s">
         <v>399</v>
@@ -9701,7 +10456,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B90" t="s">
         <v>449</v>
@@ -9748,7 +10503,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B91" t="s">
         <v>444</v>
@@ -9795,10 +10550,10 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B92" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C92" t="s">
         <v>399</v>
@@ -9842,10 +10597,10 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B93" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C93" t="s">
         <v>399</v>
@@ -9889,7 +10644,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B94" t="s">
         <v>438</v>
@@ -9936,7 +10691,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B95" t="s">
         <v>454</v>
@@ -9983,10 +10738,10 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B96" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C96" t="s">
         <v>399</v>
@@ -10030,7 +10785,7 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B97" t="s">
         <v>437</v>
@@ -10077,7 +10832,7 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B98" t="s">
         <v>440</v>
@@ -10124,10 +10879,10 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B99" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C99" t="s">
         <v>401</v>
@@ -10268,7 +11023,7 @@
         <v>439</v>
       </c>
       <c r="B102" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C102" t="s">
         <v>404</v>
@@ -10312,10 +11067,10 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B103" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C103" t="s">
         <v>417</v>
@@ -10359,10 +11114,10 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B104" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C104" t="s">
         <v>417</v>
@@ -10406,10 +11161,10 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B105" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C105" t="s">
         <v>417</v>
@@ -10453,10 +11208,10 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B106" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C106" t="s">
         <v>417</v>
@@ -10500,10 +11255,10 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>537</v>
+      </c>
+      <c r="B107" t="s">
         <v>539</v>
-      </c>
-      <c r="B107" t="s">
-        <v>541</v>
       </c>
       <c r="C107" t="s">
         <v>417</v>
@@ -10547,10 +11302,10 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>534</v>
+      </c>
+      <c r="B108" t="s">
         <v>536</v>
-      </c>
-      <c r="B108" t="s">
-        <v>538</v>
       </c>
       <c r="C108" t="s">
         <v>417</v>
@@ -10594,7 +11349,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B109" t="s">
         <v>443</v>
@@ -10641,7 +11396,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B110" t="s">
         <v>443</v>
@@ -10691,7 +11446,7 @@
         <v>440</v>
       </c>
       <c r="B111" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C111" t="s">
         <v>405</v>
@@ -10738,7 +11493,7 @@
         <v>440</v>
       </c>
       <c r="B112" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C112" t="s">
         <v>405</v>
@@ -10785,7 +11540,7 @@
         <v>440</v>
       </c>
       <c r="B113" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C113" t="s">
         <v>405</v>
@@ -10876,10 +11631,10 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B115" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C115" t="s">
         <v>411</v>
@@ -10923,10 +11678,10 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B116" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C116" t="s">
         <v>411</v>
@@ -10970,10 +11725,10 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B117" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C117" t="s">
         <v>411</v>
@@ -11017,7 +11772,7 @@
     </row>
     <row r="120" spans="1:15" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="79" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B120" s="79"/>
       <c r="C120" s="79"/>
@@ -11027,40 +11782,40 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G121" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B122" t="s">
+        <v>554</v>
+      </c>
+      <c r="G122" t="s">
         <v>555</v>
-      </c>
-      <c r="B122" t="s">
-        <v>556</v>
-      </c>
-      <c r="G122" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B123" t="s">
+        <v>557</v>
+      </c>
+      <c r="G123" t="s">
         <v>558</v>
-      </c>
-      <c r="B123" t="s">
-        <v>559</v>
-      </c>
-      <c r="G123" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B124" t="s">
+        <v>560</v>
+      </c>
+      <c r="G124" t="s">
         <v>561</v>
-      </c>
-      <c r="B124" t="s">
-        <v>562</v>
-      </c>
-      <c r="G124" t="s">
-        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -11081,7 +11836,7 @@
   <dimension ref="A1:AM104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="AG32" sqref="AG32"/>
@@ -11095,7 +11850,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B1" s="52" t="s">
         <v>72</v>
@@ -11214,7 +11969,7 @@
     </row>
     <row r="2" spans="1:39" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>72</v>
@@ -11327,7 +12082,7 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B3" s="65"/>
       <c r="C3" s="65">
@@ -11435,7 +12190,7 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="65" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B4" s="65" t="s">
         <v>363</v>
@@ -11545,7 +12300,7 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="65" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B5" s="65" t="s">
         <v>363</v>
@@ -11655,7 +12410,7 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="65" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B6" s="65" t="s">
         <v>363</v>
@@ -11765,7 +12520,7 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="65" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B7" s="65" t="s">
         <v>363</v>
@@ -11875,7 +12630,7 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="65" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B8" s="65" t="s">
         <v>363</v>
@@ -11985,7 +12740,7 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="65" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B9" s="65" t="s">
         <v>363</v>
@@ -12095,7 +12850,7 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="65" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B10" s="65" t="s">
         <v>363</v>
@@ -12205,7 +12960,7 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="65" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B11" s="65" t="s">
         <v>363</v>
@@ -12315,7 +13070,7 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="65" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B12" s="65" t="s">
         <v>363</v>
@@ -12535,7 +13290,7 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="65" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B14" s="65" t="s">
         <v>363</v>
@@ -12645,7 +13400,7 @@
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="65" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B15" s="65" t="s">
         <v>363</v>
@@ -12755,7 +13510,7 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="65" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B16" s="65" t="s">
         <v>363</v>
@@ -12865,7 +13620,7 @@
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="65" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B17" s="65" t="s">
         <v>363</v>
@@ -12975,7 +13730,7 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="65" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B18" s="65" t="s">
         <v>363</v>
@@ -13085,7 +13840,7 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="65" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B19" s="65" t="s">
         <v>363</v>
@@ -13195,7 +13950,7 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="65" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B20" s="65" t="s">
         <v>363</v>
@@ -13305,7 +14060,7 @@
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="65" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B21" s="65" t="s">
         <v>363</v>
@@ -13415,7 +14170,7 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="65" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B22" s="65" t="s">
         <v>363</v>
@@ -13525,7 +14280,7 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="65" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B23" s="65" t="s">
         <v>363</v>
@@ -13635,7 +14390,7 @@
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="65" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B24" s="65" t="s">
         <v>363</v>
@@ -13745,7 +14500,7 @@
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="65" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B25" s="65" t="s">
         <v>363</v>
@@ -13855,7 +14610,7 @@
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="65" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B26" s="65" t="s">
         <v>363</v>
@@ -13965,7 +14720,7 @@
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="65" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B27" s="65" t="s">
         <v>363</v>
@@ -14075,7 +14830,7 @@
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="65" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B28" s="65" t="s">
         <v>363</v>
@@ -14185,7 +14940,7 @@
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="65" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B29" s="65" t="s">
         <v>363</v>
@@ -14295,7 +15050,7 @@
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="65" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B30" s="65" t="s">
         <v>363</v>
@@ -14405,7 +15160,7 @@
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="65" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B31" s="65" t="s">
         <v>363</v>
@@ -14515,7 +15270,7 @@
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="65" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B32" s="65" t="s">
         <v>363</v>
@@ -14625,7 +15380,7 @@
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="65" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B33" s="65" t="s">
         <v>363</v>
@@ -14735,7 +15490,7 @@
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" s="65" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B34" s="65" t="s">
         <v>363</v>
@@ -14845,7 +15600,7 @@
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" s="65" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B35" s="65" t="s">
         <v>363</v>
@@ -14955,7 +15710,7 @@
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" s="65" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B36" s="65" t="s">
         <v>363</v>
@@ -15065,7 +15820,7 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" s="65" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B37" s="65" t="s">
         <v>363</v>
@@ -15175,7 +15930,7 @@
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" s="65" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B38" s="65" t="s">
         <v>363</v>
@@ -15285,7 +16040,7 @@
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" s="65" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B39" s="65" t="s">
         <v>363</v>
@@ -15395,7 +16150,7 @@
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" s="65" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B40" s="65" t="s">
         <v>363</v>
@@ -15505,7 +16260,7 @@
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" s="65" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B41" s="65" t="s">
         <v>363</v>
@@ -15615,7 +16370,7 @@
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A42" s="65" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B42" s="65" t="s">
         <v>363</v>
@@ -15725,7 +16480,7 @@
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" s="65" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B43" s="65" t="s">
         <v>363</v>
@@ -15835,7 +16590,7 @@
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" s="65" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B44" s="65" t="s">
         <v>363</v>
@@ -16055,7 +16810,7 @@
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A46" s="65" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B46" s="65" t="s">
         <v>363</v>
@@ -16165,7 +16920,7 @@
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" s="65" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B47" s="65" t="s">
         <v>363</v>
@@ -16275,7 +17030,7 @@
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" s="65" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B48" s="65" t="s">
         <v>363</v>
@@ -16385,7 +17140,7 @@
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" s="65" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B49" s="65" t="s">
         <v>363</v>
@@ -16495,7 +17250,7 @@
     </row>
     <row r="51" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="61" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B51" s="61"/>
       <c r="C51" s="52" t="s">
@@ -16721,7 +17476,7 @@
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" s="65" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B53" s="65"/>
       <c r="C53" s="65">
@@ -16829,7 +17584,7 @@
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A54" s="65" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B54" s="65" t="s">
         <v>363</v>
@@ -16939,7 +17694,7 @@
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55" s="65" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B55" s="65" t="s">
         <v>363</v>
@@ -17049,7 +17804,7 @@
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A56" s="65" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B56" s="65" t="s">
         <v>363</v>
@@ -17159,7 +17914,7 @@
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57" s="65" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B57" s="65" t="s">
         <v>363</v>
@@ -17269,7 +18024,7 @@
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A58" s="65" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B58" s="65" t="s">
         <v>363</v>
@@ -17379,7 +18134,7 @@
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59" s="65" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B59" s="65" t="s">
         <v>363</v>
@@ -17489,7 +18244,7 @@
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A60" s="65" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B60" s="65" t="s">
         <v>363</v>
@@ -17599,7 +18354,7 @@
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A61" s="65" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B61" s="65" t="s">
         <v>363</v>
@@ -17709,7 +18464,7 @@
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A62" s="65" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B62" s="65" t="s">
         <v>363</v>
@@ -17929,7 +18684,7 @@
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A64" s="65" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B64" s="65" t="s">
         <v>363</v>
@@ -18039,7 +18794,7 @@
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A65" s="65" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B65" s="65" t="s">
         <v>363</v>
@@ -18149,7 +18904,7 @@
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A66" s="65" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B66" s="65" t="s">
         <v>363</v>
@@ -18259,7 +19014,7 @@
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A67" s="65" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B67" s="65" t="s">
         <v>363</v>
@@ -18369,7 +19124,7 @@
     </row>
     <row r="68" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A68" s="65" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B68" s="65" t="s">
         <v>363</v>
@@ -18479,7 +19234,7 @@
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A69" s="65" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B69" s="65" t="s">
         <v>363</v>
@@ -18589,7 +19344,7 @@
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A70" s="65" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B70" s="65" t="s">
         <v>363</v>
@@ -18699,7 +19454,7 @@
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A71" s="65" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B71" s="65" t="s">
         <v>363</v>
@@ -18809,7 +19564,7 @@
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A72" s="65" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B72" s="65" t="s">
         <v>363</v>
@@ -18919,7 +19674,7 @@
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A73" s="65" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B73" s="65" t="s">
         <v>363</v>
@@ -19029,7 +19784,7 @@
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A74" s="65" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B74" s="65" t="s">
         <v>363</v>
@@ -19139,7 +19894,7 @@
     </row>
     <row r="75" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A75" s="65" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B75" s="65" t="s">
         <v>363</v>
@@ -19249,7 +20004,7 @@
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A76" s="65" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B76" s="65" t="s">
         <v>363</v>
@@ -19359,7 +20114,7 @@
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A77" s="65" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B77" s="65" t="s">
         <v>363</v>
@@ -19469,7 +20224,7 @@
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A78" s="65" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B78" s="65" t="s">
         <v>363</v>
@@ -19579,7 +20334,7 @@
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A79" s="65" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B79" s="65" t="s">
         <v>363</v>
@@ -19689,7 +20444,7 @@
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A80" s="65" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B80" s="65" t="s">
         <v>363</v>
@@ -19799,7 +20554,7 @@
     </row>
     <row r="81" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A81" s="65" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B81" s="65" t="s">
         <v>363</v>
@@ -19909,7 +20664,7 @@
     </row>
     <row r="82" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A82" s="65" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B82" s="65" t="s">
         <v>363</v>
@@ -20019,7 +20774,7 @@
     </row>
     <row r="83" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A83" s="65" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B83" s="65" t="s">
         <v>363</v>
@@ -20129,7 +20884,7 @@
     </row>
     <row r="84" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A84" s="65" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B84" s="65" t="s">
         <v>363</v>
@@ -20239,7 +20994,7 @@
     </row>
     <row r="85" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A85" s="65" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B85" s="65" t="s">
         <v>363</v>
@@ -20349,7 +21104,7 @@
     </row>
     <row r="86" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A86" s="65" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B86" s="65" t="s">
         <v>363</v>
@@ -20459,7 +21214,7 @@
     </row>
     <row r="87" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A87" s="65" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B87" s="65" t="s">
         <v>363</v>
@@ -20569,7 +21324,7 @@
     </row>
     <row r="88" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A88" s="65" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B88" s="65" t="s">
         <v>363</v>
@@ -20679,7 +21434,7 @@
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A89" s="65" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B89" s="65" t="s">
         <v>363</v>
@@ -20789,7 +21544,7 @@
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A90" s="65" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B90" s="65" t="s">
         <v>363</v>
@@ -20899,7 +21654,7 @@
     </row>
     <row r="91" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A91" s="65" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B91" s="65" t="s">
         <v>363</v>
@@ -21009,7 +21764,7 @@
     </row>
     <row r="92" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A92" s="65" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B92" s="65" t="s">
         <v>363</v>
@@ -21119,7 +21874,7 @@
     </row>
     <row r="93" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A93" s="65" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B93" s="65" t="s">
         <v>363</v>
@@ -21229,7 +21984,7 @@
     </row>
     <row r="94" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A94" s="65" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B94" s="65" t="s">
         <v>363</v>
@@ -21449,7 +22204,7 @@
     </row>
     <row r="96" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A96" s="65" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B96" s="65" t="s">
         <v>363</v>
@@ -21559,7 +22314,7 @@
     </row>
     <row r="97" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A97" s="65" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B97" s="65" t="s">
         <v>363</v>
@@ -21669,7 +22424,7 @@
     </row>
     <row r="98" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A98" s="65" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B98" s="65" t="s">
         <v>363</v>
@@ -21779,7 +22534,7 @@
     </row>
     <row r="99" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A99" s="65" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B99" s="65" t="s">
         <v>363</v>
@@ -21889,13 +22644,13 @@
     </row>
     <row r="103" spans="1:39" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A103" s="67" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B103" s="67"/>
     </row>
     <row r="104" spans="1:39" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A104" s="67" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B104" s="67"/>
     </row>
@@ -21909,7 +22664,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -23116,14 +23871,1406 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F6D851-D12C-45E6-B678-140A0114FC2D}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="str">
+        <f>Wind_potential!B2</f>
+        <v>traderesTechnology</v>
+      </c>
+      <c r="B1" t="str">
+        <f>Wind_potential!C2</f>
+        <v>Unit</v>
+      </c>
+      <c r="C1" t="str">
+        <f>Wind_potential!N2</f>
+        <v>DE</v>
+      </c>
+      <c r="D1" t="str">
+        <f>Wind_potential!W2</f>
+        <v>NL</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>Wind_potential!B3</f>
+        <v>WTG_onshore</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Wind_potential!C3</f>
+        <v>GW</v>
+      </c>
+      <c r="C2">
+        <f>Wind_potential!N3</f>
+        <v>42.191125290999999</v>
+      </c>
+      <c r="D2">
+        <f>Wind_potential!W3</f>
+        <v>43.336125919000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>Wind_potential!B4</f>
+        <v>WTG_offshore</v>
+      </c>
+      <c r="B3" t="str">
+        <f>B2</f>
+        <v>GW</v>
+      </c>
+      <c r="C3">
+        <f>Wind_potential!N4</f>
+        <v>27.84</v>
+      </c>
+      <c r="D3">
+        <f>Wind_potential!W4</f>
+        <v>47.744999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>Solar_potential!B3</f>
+        <v>PV_utility_systems</v>
+      </c>
+      <c r="B4" t="str">
+        <f>Solar_potential!C3</f>
+        <v>GW_e</v>
+      </c>
+      <c r="C4">
+        <f>Solar_potential!O3</f>
+        <v>796.91069999999979</v>
+      </c>
+      <c r="D4">
+        <f>Solar_potential!X3</f>
+        <v>96.145200000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:AQ14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" s="27" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="W1" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="X1" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y1" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="Z1" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA1" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB1" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="AC1" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="AD1" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="AE1" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="AF1" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="AG1" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="AH1" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="AI1" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="AJ1" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="AK1" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="AL1" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="AM1" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="AN1" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="AO1" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="AQ1" s="59" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" s="48" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>424</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="M2" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="N2" s="48" t="s">
+        <v>429</v>
+      </c>
+      <c r="O2" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="P2" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q2" s="48" t="s">
+        <v>433</v>
+      </c>
+      <c r="R2" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="S2" s="48" t="s">
+        <v>435</v>
+      </c>
+      <c r="T2" s="48" t="s">
+        <v>436</v>
+      </c>
+      <c r="U2" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="X2" s="48" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y2" s="48" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z2" s="48" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA2" s="48" t="s">
+        <v>442</v>
+      </c>
+      <c r="AB2" s="48" t="s">
+        <v>443</v>
+      </c>
+      <c r="AC2" s="48" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD2" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="AE2" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="AF2" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="AG2" s="48" t="s">
+        <v>448</v>
+      </c>
+      <c r="AH2" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="AI2" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="AJ2" s="48" t="s">
+        <v>451</v>
+      </c>
+      <c r="AK2" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="AL2" s="48" t="s">
+        <v>453</v>
+      </c>
+      <c r="AM2" s="48" t="s">
+        <v>454</v>
+      </c>
+      <c r="AN2" s="48" t="s">
+        <v>455</v>
+      </c>
+      <c r="AO2" s="48" t="s">
+        <v>456</v>
+      </c>
+      <c r="AQ2" s="60"/>
+    </row>
+    <row r="3" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B3">
+        <v>2019</v>
+      </c>
+      <c r="C3">
+        <v>110</v>
+      </c>
+      <c r="D3">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>457</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>46</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>57</v>
+      </c>
+      <c r="M3">
+        <v>44</v>
+      </c>
+      <c r="N3">
+        <v>9</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <v>260</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+      <c r="R3">
+        <v>72</v>
+      </c>
+      <c r="S3">
+        <v>18</v>
+      </c>
+      <c r="T3">
+        <v>118</v>
+      </c>
+      <c r="U3">
+        <v>7</v>
+      </c>
+      <c r="X3">
+        <v>7</v>
+      </c>
+      <c r="Y3">
+        <v>67</v>
+      </c>
+      <c r="Z3">
+        <v>22</v>
+      </c>
+      <c r="AA3">
+        <v>22</v>
+      </c>
+      <c r="AB3">
+        <v>17</v>
+      </c>
+      <c r="AC3">
+        <v>2</v>
+      </c>
+      <c r="AD3">
+        <v>90</v>
+      </c>
+      <c r="AE3">
+        <v>19</v>
+      </c>
+      <c r="AF3">
+        <v>5</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>4</v>
+      </c>
+      <c r="AL3">
+        <v>11</v>
+      </c>
+      <c r="AO3">
+        <v>160</v>
+      </c>
+      <c r="AQ3" s="49" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B4">
+        <v>2020</v>
+      </c>
+      <c r="C4">
+        <v>109</v>
+      </c>
+      <c r="D4">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>457</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>47</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>50</v>
+      </c>
+      <c r="M4">
+        <v>43</v>
+      </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <v>259</v>
+      </c>
+      <c r="Q4">
+        <v>7</v>
+      </c>
+      <c r="R4">
+        <v>63</v>
+      </c>
+      <c r="S4">
+        <v>18</v>
+      </c>
+      <c r="T4">
+        <v>120</v>
+      </c>
+      <c r="U4">
+        <v>7</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>71</v>
+      </c>
+      <c r="Z4">
+        <v>22</v>
+      </c>
+      <c r="AA4">
+        <v>23</v>
+      </c>
+      <c r="AB4">
+        <v>14</v>
+      </c>
+      <c r="AC4">
+        <v>2</v>
+      </c>
+      <c r="AD4">
+        <v>101</v>
+      </c>
+      <c r="AE4">
+        <v>18</v>
+      </c>
+      <c r="AF4">
+        <v>5</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>3</v>
+      </c>
+      <c r="AL4">
+        <v>11</v>
+      </c>
+      <c r="AO4">
+        <v>157</v>
+      </c>
+      <c r="AQ4" s="49" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>615</v>
+      </c>
+      <c r="B5">
+        <v>2030</v>
+      </c>
+      <c r="C5">
+        <v>111</v>
+      </c>
+      <c r="D5">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>457</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>49</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>45</v>
+      </c>
+      <c r="M5">
+        <v>44</v>
+      </c>
+      <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>259</v>
+      </c>
+      <c r="Q5">
+        <v>8</v>
+      </c>
+      <c r="R5">
+        <v>62</v>
+      </c>
+      <c r="S5">
+        <v>18</v>
+      </c>
+      <c r="T5">
+        <v>119</v>
+      </c>
+      <c r="U5">
+        <v>8</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>79</v>
+      </c>
+      <c r="Z5">
+        <v>23</v>
+      </c>
+      <c r="AA5">
+        <v>24</v>
+      </c>
+      <c r="AB5">
+        <v>13</v>
+      </c>
+      <c r="AC5">
+        <v>2</v>
+      </c>
+      <c r="AD5">
+        <v>104</v>
+      </c>
+      <c r="AE5">
+        <v>18</v>
+      </c>
+      <c r="AF5">
+        <v>5</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>4</v>
+      </c>
+      <c r="AL5">
+        <v>11</v>
+      </c>
+      <c r="AO5">
+        <v>159</v>
+      </c>
+      <c r="AQ5" s="49"/>
+    </row>
+    <row r="6" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B6">
+        <v>2040</v>
+      </c>
+      <c r="C6">
+        <v>113</v>
+      </c>
+      <c r="D6">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>457</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>52</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>44</v>
+      </c>
+      <c r="M6">
+        <v>44</v>
+      </c>
+      <c r="N6">
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="P6">
+        <v>259</v>
+      </c>
+      <c r="Q6">
+        <v>8</v>
+      </c>
+      <c r="R6">
+        <v>63</v>
+      </c>
+      <c r="S6">
+        <v>18</v>
+      </c>
+      <c r="T6">
+        <v>118</v>
+      </c>
+      <c r="U6">
+        <v>8</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>87</v>
+      </c>
+      <c r="Z6">
+        <v>24</v>
+      </c>
+      <c r="AA6">
+        <v>22</v>
+      </c>
+      <c r="AB6">
+        <v>13</v>
+      </c>
+      <c r="AC6">
+        <v>2</v>
+      </c>
+      <c r="AD6">
+        <v>108</v>
+      </c>
+      <c r="AE6">
+        <v>19</v>
+      </c>
+      <c r="AF6">
+        <v>6</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>4</v>
+      </c>
+      <c r="AL6">
+        <v>11</v>
+      </c>
+      <c r="AO6">
+        <v>160</v>
+      </c>
+      <c r="AQ6" s="49"/>
+    </row>
+    <row r="7" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>615</v>
+      </c>
+      <c r="B7">
+        <v>2050</v>
+      </c>
+      <c r="C7">
+        <v>116</v>
+      </c>
+      <c r="D7">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>56</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>43</v>
+      </c>
+      <c r="M7">
+        <v>44</v>
+      </c>
+      <c r="N7">
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <v>8</v>
+      </c>
+      <c r="P7">
+        <v>258</v>
+      </c>
+      <c r="Q7">
+        <v>8</v>
+      </c>
+      <c r="R7">
+        <v>64</v>
+      </c>
+      <c r="S7">
+        <v>18</v>
+      </c>
+      <c r="T7">
+        <v>116</v>
+      </c>
+      <c r="U7">
+        <v>9</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>96</v>
+      </c>
+      <c r="Z7">
+        <v>24</v>
+      </c>
+      <c r="AA7">
+        <v>21</v>
+      </c>
+      <c r="AB7">
+        <v>12</v>
+      </c>
+      <c r="AC7">
+        <v>2</v>
+      </c>
+      <c r="AD7">
+        <v>112</v>
+      </c>
+      <c r="AE7">
+        <v>20</v>
+      </c>
+      <c r="AF7">
+        <v>7</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>4</v>
+      </c>
+      <c r="AL7">
+        <v>11</v>
+      </c>
+      <c r="AO7">
+        <v>162</v>
+      </c>
+      <c r="AQ7" s="49"/>
+    </row>
+    <row r="8" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>616</v>
+      </c>
+      <c r="B8">
+        <v>2019</v>
+      </c>
+      <c r="C8">
+        <v>462</v>
+      </c>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>457</v>
+      </c>
+      <c r="G8">
+        <v>113</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>63</v>
+      </c>
+      <c r="J8">
+        <v>22</v>
+      </c>
+      <c r="L8">
+        <v>93</v>
+      </c>
+      <c r="M8">
+        <v>27</v>
+      </c>
+      <c r="N8">
+        <v>43</v>
+      </c>
+      <c r="O8">
+        <v>198</v>
+      </c>
+      <c r="P8">
+        <v>349</v>
+      </c>
+      <c r="Q8">
+        <v>18</v>
+      </c>
+      <c r="R8">
+        <v>59</v>
+      </c>
+      <c r="S8">
+        <v>14</v>
+      </c>
+      <c r="T8">
+        <v>126</v>
+      </c>
+      <c r="U8">
+        <v>58</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <v>236</v>
+      </c>
+      <c r="Z8">
+        <v>58</v>
+      </c>
+      <c r="AA8">
+        <v>145</v>
+      </c>
+      <c r="AB8">
+        <v>51</v>
+      </c>
+      <c r="AC8">
+        <v>34</v>
+      </c>
+      <c r="AD8">
+        <v>154</v>
+      </c>
+      <c r="AE8">
+        <v>330</v>
+      </c>
+      <c r="AF8">
+        <v>64</v>
+      </c>
+      <c r="AH8">
+        <v>12</v>
+      </c>
+      <c r="AJ8">
+        <v>7</v>
+      </c>
+      <c r="AK8">
+        <v>96</v>
+      </c>
+      <c r="AL8">
+        <v>36</v>
+      </c>
+      <c r="AO8">
+        <v>82</v>
+      </c>
+      <c r="AQ8" s="49" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>616</v>
+      </c>
+      <c r="B9">
+        <v>2020</v>
+      </c>
+      <c r="C9">
+        <v>335</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>457</v>
+      </c>
+      <c r="G9">
+        <v>80</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <v>48</v>
+      </c>
+      <c r="J9">
+        <v>17</v>
+      </c>
+      <c r="L9">
+        <v>67</v>
+      </c>
+      <c r="M9">
+        <v>24</v>
+      </c>
+      <c r="N9">
+        <v>30</v>
+      </c>
+      <c r="O9">
+        <v>137</v>
+      </c>
+      <c r="P9">
+        <v>267</v>
+      </c>
+      <c r="Q9">
+        <v>16</v>
+      </c>
+      <c r="R9">
+        <v>52</v>
+      </c>
+      <c r="S9">
+        <v>12</v>
+      </c>
+      <c r="T9">
+        <v>109</v>
+      </c>
+      <c r="U9">
+        <v>42</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>188</v>
+      </c>
+      <c r="Z9">
+        <v>35</v>
+      </c>
+      <c r="AA9">
+        <v>131</v>
+      </c>
+      <c r="AB9">
+        <v>33</v>
+      </c>
+      <c r="AC9">
+        <v>26</v>
+      </c>
+      <c r="AD9">
+        <v>124</v>
+      </c>
+      <c r="AE9">
+        <v>221</v>
+      </c>
+      <c r="AF9">
+        <v>42</v>
+      </c>
+      <c r="AH9">
+        <v>8</v>
+      </c>
+      <c r="AJ9">
+        <v>7</v>
+      </c>
+      <c r="AK9">
+        <v>66</v>
+      </c>
+      <c r="AL9">
+        <v>29</v>
+      </c>
+      <c r="AO9">
+        <v>61</v>
+      </c>
+      <c r="AQ9" s="49"/>
+    </row>
+    <row r="10" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>616</v>
+      </c>
+      <c r="B10">
+        <v>2030</v>
+      </c>
+      <c r="C10">
+        <v>309</v>
+      </c>
+      <c r="D10">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>457</v>
+      </c>
+      <c r="G10">
+        <v>74</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>36</v>
+      </c>
+      <c r="J10">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <v>62</v>
+      </c>
+      <c r="M10">
+        <v>24</v>
+      </c>
+      <c r="N10">
+        <v>26</v>
+      </c>
+      <c r="O10">
+        <v>124</v>
+      </c>
+      <c r="P10">
+        <v>269</v>
+      </c>
+      <c r="Q10">
+        <v>17</v>
+      </c>
+      <c r="R10">
+        <v>49</v>
+      </c>
+      <c r="S10">
+        <v>12</v>
+      </c>
+      <c r="T10">
+        <v>103</v>
+      </c>
+      <c r="U10">
+        <v>42</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>172</v>
+      </c>
+      <c r="Z10">
+        <v>36</v>
+      </c>
+      <c r="AA10">
+        <v>125</v>
+      </c>
+      <c r="AB10">
+        <v>30</v>
+      </c>
+      <c r="AC10">
+        <v>23</v>
+      </c>
+      <c r="AD10">
+        <v>116</v>
+      </c>
+      <c r="AE10">
+        <v>210</v>
+      </c>
+      <c r="AF10">
+        <v>38</v>
+      </c>
+      <c r="AH10">
+        <v>9</v>
+      </c>
+      <c r="AJ10">
+        <v>7</v>
+      </c>
+      <c r="AK10">
+        <v>62</v>
+      </c>
+      <c r="AL10">
+        <v>30</v>
+      </c>
+      <c r="AO10">
+        <v>66</v>
+      </c>
+      <c r="AQ10" s="49"/>
+    </row>
+    <row r="11" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>616</v>
+      </c>
+      <c r="B11">
+        <v>2040</v>
+      </c>
+      <c r="C11">
+        <v>299</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>457</v>
+      </c>
+      <c r="G11">
+        <v>75</v>
+      </c>
+      <c r="H11">
+        <v>33</v>
+      </c>
+      <c r="I11">
+        <v>35</v>
+      </c>
+      <c r="J11">
+        <v>15</v>
+      </c>
+      <c r="L11">
+        <v>60</v>
+      </c>
+      <c r="M11">
+        <v>26</v>
+      </c>
+      <c r="N11">
+        <v>24</v>
+      </c>
+      <c r="O11">
+        <v>117</v>
+      </c>
+      <c r="P11">
+        <v>273</v>
+      </c>
+      <c r="Q11">
+        <v>17</v>
+      </c>
+      <c r="R11">
+        <v>53</v>
+      </c>
+      <c r="S11">
+        <v>16</v>
+      </c>
+      <c r="T11">
+        <v>107</v>
+      </c>
+      <c r="U11">
+        <v>45</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>180</v>
+      </c>
+      <c r="Z11">
+        <v>37</v>
+      </c>
+      <c r="AA11">
+        <v>128</v>
+      </c>
+      <c r="AB11">
+        <v>30</v>
+      </c>
+      <c r="AC11">
+        <v>22</v>
+      </c>
+      <c r="AD11">
+        <v>119</v>
+      </c>
+      <c r="AE11">
+        <v>219</v>
+      </c>
+      <c r="AF11">
+        <v>39</v>
+      </c>
+      <c r="AH11">
+        <v>9</v>
+      </c>
+      <c r="AJ11">
+        <v>8</v>
+      </c>
+      <c r="AK11">
+        <v>63</v>
+      </c>
+      <c r="AL11">
+        <v>32</v>
+      </c>
+      <c r="AO11">
+        <v>67</v>
+      </c>
+      <c r="AQ11" s="49"/>
+    </row>
+    <row r="12" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>616</v>
+      </c>
+      <c r="B12">
+        <v>2050</v>
+      </c>
+      <c r="C12">
+        <v>321</v>
+      </c>
+      <c r="D12">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>457</v>
+      </c>
+      <c r="G12">
+        <v>79</v>
+      </c>
+      <c r="H12">
+        <v>36</v>
+      </c>
+      <c r="I12">
+        <v>34</v>
+      </c>
+      <c r="J12">
+        <v>15</v>
+      </c>
+      <c r="L12">
+        <v>61</v>
+      </c>
+      <c r="M12">
+        <v>28</v>
+      </c>
+      <c r="N12">
+        <v>25</v>
+      </c>
+      <c r="O12">
+        <v>132</v>
+      </c>
+      <c r="P12">
+        <v>289</v>
+      </c>
+      <c r="Q12">
+        <v>18</v>
+      </c>
+      <c r="R12">
+        <v>56</v>
+      </c>
+      <c r="S12">
+        <v>16</v>
+      </c>
+      <c r="T12">
+        <v>113</v>
+      </c>
+      <c r="U12">
+        <v>45</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Y12">
+        <v>181</v>
+      </c>
+      <c r="Z12">
+        <v>43</v>
+      </c>
+      <c r="AA12">
+        <v>132</v>
+      </c>
+      <c r="AB12">
+        <v>29</v>
+      </c>
+      <c r="AC12">
+        <v>22</v>
+      </c>
+      <c r="AD12">
+        <v>124</v>
+      </c>
+      <c r="AE12">
+        <v>217</v>
+      </c>
+      <c r="AF12">
+        <v>42</v>
+      </c>
+      <c r="AH12">
+        <v>9</v>
+      </c>
+      <c r="AJ12">
+        <v>8</v>
+      </c>
+      <c r="AK12">
+        <v>66</v>
+      </c>
+      <c r="AL12">
+        <v>35</v>
+      </c>
+      <c r="AO12">
+        <v>68</v>
+      </c>
+      <c r="AQ12" s="49"/>
+    </row>
+    <row r="14" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G14" s="49" t="s">
+        <v>461</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:A55">
+    <sortCondition ref="A21"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:BI138"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G30" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="G33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB32" sqref="AB32"/>
+      <selection pane="bottomRight" activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -23335,7 +25482,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:61" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:61" s="30" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G2" s="30" t="s">
         <v>151</v>
       </c>
@@ -26502,7 +28649,7 @@
         <v>7</v>
       </c>
       <c r="S33" s="31">
-        <f t="shared" si="12"/>
+        <f>IFERROR(ROUND(-PMT(R33/100,Q33,1),6),0)</f>
         <v>9.4393000000000005E-2</v>
       </c>
       <c r="T33" s="31">
@@ -27200,7 +29347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:61" s="36" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:61" s="36" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="34" t="s">
         <v>232</v>
       </c>
@@ -27219,7 +29366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:61" ht="42" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:61" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>236</v>
       </c>
@@ -27272,7 +29419,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="1:61" ht="42" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:61" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>236</v>
       </c>
@@ -27325,7 +29472,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="46" spans="1:61" ht="42" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:61" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>241</v>
       </c>
@@ -27378,7 +29525,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:61" ht="42" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:61" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>241</v>
       </c>
@@ -27431,7 +29578,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:61" ht="42" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:61" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>244</v>
       </c>
@@ -27496,7 +29643,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:58" ht="42" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:58" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>244</v>
       </c>
@@ -27561,7 +29708,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:58" ht="42" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:58" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>247</v>
       </c>
@@ -27605,7 +29752,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="51" spans="1:58" ht="42" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:58" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>247</v>
       </c>
@@ -27649,7 +29796,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:58" ht="42" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:58" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>249</v>
       </c>
@@ -27749,7 +29896,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:58" ht="42" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:58" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>249</v>
       </c>
@@ -27849,7 +29996,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="54" spans="1:58" ht="42" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:58" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>249</v>
       </c>
@@ -27949,7 +30096,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="55" spans="1:58" ht="56" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:58" ht="56" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>254</v>
       </c>
@@ -28049,7 +30196,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="56" spans="1:58" ht="56" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:58" ht="56" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>254</v>
       </c>
@@ -28149,7 +30296,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:58" ht="56" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:58" ht="56" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>254</v>
       </c>
@@ -28249,7 +30396,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:58" ht="56" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:58" ht="56" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>258</v>
       </c>
@@ -28334,7 +30481,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="59" spans="1:58" ht="56" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:58" ht="56" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>258</v>
       </c>
@@ -28419,7 +30566,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="60" spans="1:58" ht="56" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:58" ht="56" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>258</v>
       </c>
@@ -28504,7 +30651,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="61" spans="1:58" s="39" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:58" s="39" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>262</v>
       </c>
@@ -28589,7 +30736,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="62" spans="1:58" s="39" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:58" s="39" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>262</v>
       </c>
@@ -28674,7 +30821,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="1:58" s="39" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:58" s="39" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>262</v>
       </c>
@@ -28759,7 +30906,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="64" spans="1:58" ht="42" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:58" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>266</v>
       </c>
@@ -28851,7 +30998,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="1:58" ht="42" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:58" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>266</v>
       </c>
@@ -28943,7 +31090,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="66" spans="1:58" ht="42" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:58" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>266</v>
       </c>
@@ -29035,7 +31182,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="67" spans="1:58" ht="42" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:58" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>271</v>
       </c>
@@ -29135,7 +31282,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="68" spans="1:58" ht="42" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:58" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>271</v>
       </c>
@@ -29235,7 +31382,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="69" spans="1:58" ht="42" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:58" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>274</v>
       </c>
@@ -29331,7 +31478,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="70" spans="1:58" ht="42" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:58" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>274</v>
       </c>
@@ -29427,7 +31574,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:58" ht="42" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:58" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>277</v>
       </c>
@@ -29521,7 +31668,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="1:58" ht="42" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:58" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>277</v>
       </c>
@@ -29615,7 +31762,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:58" s="38" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:58" s="38" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="37" t="s">
         <v>281</v>
       </c>
@@ -29695,7 +31842,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="74" spans="1:58" ht="42" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:58" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>282</v>
       </c>
@@ -29780,7 +31927,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="75" spans="1:58" ht="42" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:58" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>282</v>
       </c>
@@ -30061,7 +32208,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="78" spans="1:58" ht="42" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:58" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>288</v>
       </c>
@@ -30093,7 +32240,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="1:58" ht="42" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:58" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>288</v>
       </c>
@@ -30319,7 +32466,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="82" spans="1:58" ht="42" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:58" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>291</v>
       </c>
@@ -30357,7 +32504,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="83" spans="1:58" ht="42" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:58" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>291</v>
       </c>
@@ -30483,7 +32630,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="85" spans="1:58" s="38" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:58" s="38" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="37" t="s">
         <v>294</v>
       </c>
@@ -30762,7 +32909,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="88" spans="1:58" ht="28" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:58" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>296</v>
       </c>
@@ -31050,7 +33197,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="91" spans="1:58" ht="28" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:58" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>296</v>
       </c>
@@ -31338,7 +33485,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="94" spans="1:58" ht="28" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:58" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>296</v>
       </c>
@@ -31489,7 +33636,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="96" spans="1:58" ht="28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:58" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>305</v>
       </c>
@@ -31564,7 +33711,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="97" spans="1:42" ht="28" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:42" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>305</v>
       </c>
@@ -31638,7 +33785,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="98" spans="1:42" ht="28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:42" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>305</v>
       </c>
@@ -31711,7 +33858,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="99" spans="1:42" ht="28" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:42" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>309</v>
       </c>
@@ -31784,7 +33931,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="100" spans="1:42" ht="28" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:42" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>309</v>
       </c>
@@ -31857,7 +34004,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="101" spans="1:42" ht="28" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:42" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>309</v>
       </c>
@@ -31927,7 +34074,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="102" spans="1:42" ht="28" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:42" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>312</v>
       </c>
@@ -31997,7 +34144,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="103" spans="1:42" ht="28" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:42" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>312</v>
       </c>
@@ -32067,7 +34214,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="104" spans="1:42" ht="28" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:42" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>312</v>
       </c>
@@ -32135,7 +34282,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="105" spans="1:42" ht="28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:42" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>312</v>
       </c>
@@ -32205,7 +34352,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="106" spans="1:42" ht="28" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:42" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>312</v>
       </c>
@@ -32275,7 +34422,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="107" spans="1:42" ht="28" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:42" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>312</v>
       </c>
@@ -32343,7 +34490,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="108" spans="1:42" ht="28" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:42" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>312</v>
       </c>
@@ -32413,7 +34560,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="109" spans="1:42" ht="28" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:42" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>312</v>
       </c>
@@ -32483,7 +34630,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="110" spans="1:42" ht="28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:42" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>312</v>
       </c>
@@ -32597,7 +34744,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="112" spans="1:42" ht="28" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:42" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>318</v>
       </c>
@@ -32640,7 +34787,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="113" spans="1:44" ht="28" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:44" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>318</v>
       </c>
@@ -32687,7 +34834,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="114" spans="1:44" ht="28" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:44" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>318</v>
       </c>
@@ -32730,7 +34877,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="115" spans="1:44" ht="28" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:44" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>318</v>
       </c>
@@ -32851,7 +34998,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="117" spans="1:44" ht="28" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:44" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>328</v>
       </c>
@@ -32922,7 +35069,7 @@
       </c>
       <c r="AL117" s="39"/>
     </row>
-    <row r="118" spans="1:44" ht="28" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:44" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>328</v>
       </c>
@@ -33077,7 +35224,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="120" spans="1:44" ht="28" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:44" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>328</v>
       </c>
@@ -33148,7 +35295,7 @@
       </c>
       <c r="AL120" s="39"/>
     </row>
-    <row r="121" spans="1:44" ht="28" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:44" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>328</v>
       </c>
@@ -33219,7 +35366,7 @@
       </c>
       <c r="AL121" s="39"/>
     </row>
-    <row r="122" spans="1:44" ht="28" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:44" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>332</v>
       </c>
@@ -33289,7 +35436,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="123" spans="1:44" ht="28" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:44" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>332</v>
       </c>
@@ -33360,7 +35507,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="124" spans="1:44" ht="28" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:44" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>332</v>
       </c>
@@ -33431,7 +35578,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="125" spans="1:44" ht="28" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:44" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>332</v>
       </c>
@@ -33501,7 +35648,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="126" spans="1:44" ht="28" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:44" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>332</v>
       </c>
@@ -33572,7 +35719,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="127" spans="1:44" ht="28" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:44" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>332</v>
       </c>
@@ -33643,7 +35790,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="128" spans="1:44" ht="28" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:44" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>342</v>
       </c>
@@ -33714,7 +35861,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>342</v>
       </c>
@@ -33785,7 +35932,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>348</v>
       </c>
@@ -33846,7 +35993,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>348</v>
       </c>
@@ -33970,7 +36117,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>348</v>
       </c>
@@ -34038,7 +36185,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>348</v>
       </c>
@@ -34100,7 +36247,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>356</v>
       </c>
@@ -34223,7 +36370,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>356</v>
       </c>
@@ -34291,7 +36438,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" ht="28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>356</v>
       </c>
@@ -34354,13 +36501,19 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BI138" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <autoFilter ref="A1:BI138" xr:uid="{00000000-0001-0000-0500-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="electricity"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AA14"/>
   <sheetViews>
@@ -34965,2107 +37118,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AS10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="23.58203125" customWidth="1"/>
-    <col min="4" max="6" width="8.58203125" customWidth="1"/>
-    <col min="42" max="45" width="15.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:45" s="27" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D1" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="P1" s="27" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="R1" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="S1" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="T1" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="U1" s="52" t="s">
-        <v>402</v>
-      </c>
-      <c r="V1" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="W1" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="X1" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="Y1" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="Z1" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA1" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="AB1" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="AC1" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="AD1" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="AE1" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="AF1" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="AG1" s="27" t="s">
-        <v>414</v>
-      </c>
-      <c r="AH1" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="AI1" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="AJ1" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="AK1" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="AL1" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="AM1" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="AN1" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="AP1" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="AQ1" s="59" t="s">
-        <v>466</v>
-      </c>
-      <c r="AR1" s="59" t="s">
-        <v>467</v>
-      </c>
-      <c r="AS1" s="59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" s="48" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>613</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>423</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>424</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>425</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>426</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>468</v>
-      </c>
-      <c r="I2" s="48" t="s">
-        <v>427</v>
-      </c>
-      <c r="J2" s="48" t="s">
-        <v>428</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>429</v>
-      </c>
-      <c r="L2" s="48" t="s">
-        <v>430</v>
-      </c>
-      <c r="M2" s="48" t="s">
-        <v>431</v>
-      </c>
-      <c r="N2" s="48" t="s">
-        <v>432</v>
-      </c>
-      <c r="O2" s="48" t="s">
-        <v>433</v>
-      </c>
-      <c r="P2" s="48" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q2" s="48" t="s">
-        <v>435</v>
-      </c>
-      <c r="R2" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="S2" s="48" t="s">
-        <v>437</v>
-      </c>
-      <c r="T2" s="48" t="s">
-        <v>469</v>
-      </c>
-      <c r="U2" s="48" t="s">
-        <v>470</v>
-      </c>
-      <c r="V2" s="48" t="s">
-        <v>438</v>
-      </c>
-      <c r="W2" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="X2" s="48" t="s">
-        <v>440</v>
-      </c>
-      <c r="Y2" s="48" t="s">
-        <v>441</v>
-      </c>
-      <c r="Z2" s="48" t="s">
-        <v>442</v>
-      </c>
-      <c r="AA2" s="48" t="s">
-        <v>443</v>
-      </c>
-      <c r="AB2" s="48" t="s">
-        <v>444</v>
-      </c>
-      <c r="AC2" s="48" t="s">
-        <v>445</v>
-      </c>
-      <c r="AD2" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="AE2" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="AF2" s="48" t="s">
-        <v>448</v>
-      </c>
-      <c r="AG2" s="48" t="s">
-        <v>449</v>
-      </c>
-      <c r="AH2" s="48" t="s">
-        <v>450</v>
-      </c>
-      <c r="AI2" s="48" t="s">
-        <v>451</v>
-      </c>
-      <c r="AJ2" s="48" t="s">
-        <v>452</v>
-      </c>
-      <c r="AK2" s="48" t="s">
-        <v>453</v>
-      </c>
-      <c r="AL2" s="48" t="s">
-        <v>454</v>
-      </c>
-      <c r="AM2" s="48" t="s">
-        <v>455</v>
-      </c>
-      <c r="AN2" s="48" t="s">
-        <v>456</v>
-      </c>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-    </row>
-    <row r="3" spans="1:45" s="38" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>614</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="D3" s="38">
-        <v>5.9277311929999996</v>
-      </c>
-      <c r="E3" s="38">
-        <v>2.1997291969999999</v>
-      </c>
-      <c r="F3" s="38">
-        <v>6.2951871659999998</v>
-      </c>
-      <c r="G3" s="38">
-        <v>6.9488544890000004</v>
-      </c>
-      <c r="H3" s="38">
-        <v>0</v>
-      </c>
-      <c r="I3" s="38">
-        <v>38.420576016999995</v>
-      </c>
-      <c r="J3" s="38">
-        <v>54.669999999999995</v>
-      </c>
-      <c r="K3" s="38">
-        <v>20.522405229</v>
-      </c>
-      <c r="L3" s="38">
-        <v>19.732288789999998</v>
-      </c>
-      <c r="M3" s="38">
-        <v>550.36595464199991</v>
-      </c>
-      <c r="N3" s="38">
-        <v>42.191125290999999</v>
-      </c>
-      <c r="O3" s="38">
-        <v>102.344410838</v>
-      </c>
-      <c r="P3" s="38">
-        <v>12.700797691</v>
-      </c>
-      <c r="Q3" s="38">
-        <v>146.5</v>
-      </c>
-      <c r="R3" s="38">
-        <v>64.533586133</v>
-      </c>
-      <c r="S3" s="38">
-        <v>60.058632353</v>
-      </c>
-      <c r="T3" s="38">
-        <v>111.245754476</v>
-      </c>
-      <c r="U3" s="38">
-        <v>0</v>
-      </c>
-      <c r="V3" s="38">
-        <v>3.7723528999999999E-2</v>
-      </c>
-      <c r="W3" s="38">
-        <v>43.336125919000004</v>
-      </c>
-      <c r="X3" s="38">
-        <v>78.77191075799999</v>
-      </c>
-      <c r="Y3" s="42">
-        <v>5.1598039709999997</v>
-      </c>
-      <c r="Z3" s="38">
-        <v>29.214642775000002</v>
-      </c>
-      <c r="AA3" s="38">
-        <v>14.168210658</v>
-      </c>
-      <c r="AB3" s="38">
-        <v>0.366633761</v>
-      </c>
-      <c r="AC3" s="38">
-        <v>321.44443629400007</v>
-      </c>
-      <c r="AD3" s="38">
-        <v>109.76137360599998</v>
-      </c>
-      <c r="AN3" s="38">
-        <v>220.19681822100011</v>
-      </c>
-      <c r="AP3" s="58" t="s">
-        <v>473</v>
-      </c>
-      <c r="AQ3" s="58" t="s">
-        <v>471</v>
-      </c>
-      <c r="AR3" s="58" t="s">
-        <v>474</v>
-      </c>
-      <c r="AS3" s="58" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>615</v>
-      </c>
-      <c r="D4">
-        <f>SUM(D5:D7)</f>
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:T4" si="0">SUM(E5:E7)</f>
-        <v>1.85</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>2.0859999999999999</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>27.31</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>1.28</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>21.265000000000001</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
-        <v>15.645</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>27.84</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="0"/>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="0"/>
-        <v>3.4090000000000003</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
-        <v>14.969999999999999</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="0"/>
-        <v>2.9400000000000004</v>
-      </c>
-      <c r="U4">
-        <f t="shared" ref="U4" si="1">SUM(U5:U7)</f>
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <f t="shared" ref="V4" si="2">SUM(V5:V7)</f>
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <f t="shared" ref="W4" si="3">SUM(W5:W7)</f>
-        <v>47.744999999999997</v>
-      </c>
-      <c r="X4">
-        <f t="shared" ref="X4" si="4">SUM(X5:X7)</f>
-        <v>12.31</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" ref="Y4" si="5">SUM(Y5:Y7)</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" ref="Z4" si="6">SUM(Z5:Z7)</f>
-        <v>8.7650000000000006</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" ref="AA4" si="7">SUM(AA5:AA7)</f>
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" ref="AB4" si="8">SUM(AB5:AB7)</f>
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" ref="AC4" si="9">SUM(AC5:AC7)</f>
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="AD4">
-        <f t="shared" ref="AD4" si="10">SUM(AD5:AD7)</f>
-        <v>31.035</v>
-      </c>
-      <c r="AE4">
-        <f t="shared" ref="AE4" si="11">SUM(AE5:AE7)</f>
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <f t="shared" ref="AF4" si="12">SUM(AF5:AF7)</f>
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <f t="shared" ref="AG4" si="13">SUM(AG5:AG7)</f>
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <f t="shared" ref="AH4" si="14">SUM(AH5:AH7)</f>
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <f t="shared" ref="AI4:AJ4" si="15">SUM(AI5:AI7)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <f t="shared" ref="AK4" si="16">SUM(AK5:AK7)</f>
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <f t="shared" ref="AL4" si="17">SUM(AL5:AL7)</f>
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <f t="shared" ref="AM4" si="18">SUM(AM5:AM7)</f>
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <f t="shared" ref="AN4" si="19">SUM(AN5:AN7)</f>
-        <v>103.60499999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>476</v>
-      </c>
-      <c r="C5" t="s">
-        <v>472</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="42">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="49" t="s">
-        <v>473</v>
-      </c>
-      <c r="AQ5" s="49" t="s">
-        <v>477</v>
-      </c>
-      <c r="AR5" s="49" t="s">
-        <v>474</v>
-      </c>
-      <c r="AS5" s="49" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>478</v>
-      </c>
-      <c r="C6" t="s">
-        <v>472</v>
-      </c>
-      <c r="E6">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="F6">
-        <v>0.435</v>
-      </c>
-      <c r="G6">
-        <v>2.0819999999999999</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>22.33</v>
-      </c>
-      <c r="K6">
-        <v>1.2</v>
-      </c>
-      <c r="L6">
-        <v>15.065</v>
-      </c>
-      <c r="M6">
-        <v>13.9</v>
-      </c>
-      <c r="N6">
-        <v>17.55</v>
-      </c>
-      <c r="O6">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="Q6">
-        <v>0.99</v>
-      </c>
-      <c r="R6">
-        <v>2.9950000000000001</v>
-      </c>
-      <c r="S6">
-        <v>12.77</v>
-      </c>
-      <c r="T6">
-        <v>2.5550000000000002</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>41.674999999999997</v>
-      </c>
-      <c r="X6">
-        <v>6.57</v>
-      </c>
-      <c r="Y6" s="42">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>8.75</v>
-      </c>
-      <c r="AC6">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="AD6">
-        <v>21.05</v>
-      </c>
-      <c r="AN6">
-        <v>56.945</v>
-      </c>
-      <c r="AP6" s="49" t="s">
-        <v>473</v>
-      </c>
-      <c r="AQ6" s="49" t="s">
-        <v>477</v>
-      </c>
-      <c r="AR6" s="49" t="s">
-        <v>474</v>
-      </c>
-      <c r="AS6" s="49" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>479</v>
-      </c>
-      <c r="C7" t="s">
-        <v>472</v>
-      </c>
-      <c r="E7">
-        <v>1.7050000000000001</v>
-      </c>
-      <c r="F7">
-        <v>0.01</v>
-      </c>
-      <c r="G7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="K7">
-        <v>0.08</v>
-      </c>
-      <c r="L7">
-        <v>6.2</v>
-      </c>
-      <c r="M7">
-        <v>1.7450000000000001</v>
-      </c>
-      <c r="N7">
-        <v>10.29</v>
-      </c>
-      <c r="O7">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="S7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="T7">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>6.07</v>
-      </c>
-      <c r="X7">
-        <v>5.74</v>
-      </c>
-      <c r="Y7" s="42">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Z7">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AC7">
-        <v>0.105</v>
-      </c>
-      <c r="AD7">
-        <v>9.9849999999999994</v>
-      </c>
-      <c r="AN7">
-        <v>46.66</v>
-      </c>
-      <c r="AP7" s="49" t="s">
-        <v>473</v>
-      </c>
-      <c r="AQ7" s="49" t="s">
-        <v>477</v>
-      </c>
-      <c r="AR7" s="49" t="s">
-        <v>474</v>
-      </c>
-      <c r="AS7" s="49" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="Y8" s="36" t="s">
-        <v>480</v>
-      </c>
-      <c r="AP8" s="49"/>
-      <c r="AQ8" s="49"/>
-      <c r="AR8" s="49"/>
-      <c r="AS8" s="49"/>
-    </row>
-    <row r="10" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AP14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V27" sqref="V27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:42" s="27" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="P1" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="R1" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="S1" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="T1" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="U1" s="52" t="s">
-        <v>402</v>
-      </c>
-      <c r="V1" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="W1" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="X1" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="Y1" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="Z1" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA1" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="AB1" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="AC1" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="AD1" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="AE1" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="AF1" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="AG1" s="27" t="s">
-        <v>414</v>
-      </c>
-      <c r="AH1" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="AI1" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="AJ1" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="AK1" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="AL1" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="AM1" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="AN1" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="AP1" s="59" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" s="48" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>423</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>424</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>425</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>426</v>
-      </c>
-      <c r="I2" s="48" t="s">
-        <v>427</v>
-      </c>
-      <c r="J2" s="48" t="s">
-        <v>428</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>429</v>
-      </c>
-      <c r="L2" s="48" t="s">
-        <v>430</v>
-      </c>
-      <c r="M2" s="48" t="s">
-        <v>431</v>
-      </c>
-      <c r="N2" s="48" t="s">
-        <v>432</v>
-      </c>
-      <c r="O2" s="48" t="s">
-        <v>433</v>
-      </c>
-      <c r="P2" s="48" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q2" s="48" t="s">
-        <v>435</v>
-      </c>
-      <c r="R2" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="S2" s="48" t="s">
-        <v>437</v>
-      </c>
-      <c r="V2" s="48" t="s">
-        <v>438</v>
-      </c>
-      <c r="W2" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="X2" s="48" t="s">
-        <v>440</v>
-      </c>
-      <c r="Y2" s="48" t="s">
-        <v>441</v>
-      </c>
-      <c r="Z2" s="48" t="s">
-        <v>442</v>
-      </c>
-      <c r="AA2" s="48" t="s">
-        <v>443</v>
-      </c>
-      <c r="AB2" s="48" t="s">
-        <v>444</v>
-      </c>
-      <c r="AC2" s="48" t="s">
-        <v>445</v>
-      </c>
-      <c r="AD2" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="AE2" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="AF2" s="48" t="s">
-        <v>448</v>
-      </c>
-      <c r="AG2" s="48" t="s">
-        <v>449</v>
-      </c>
-      <c r="AH2" s="48" t="s">
-        <v>450</v>
-      </c>
-      <c r="AI2" s="48" t="s">
-        <v>451</v>
-      </c>
-      <c r="AJ2" s="48" t="s">
-        <v>452</v>
-      </c>
-      <c r="AK2" s="48" t="s">
-        <v>453</v>
-      </c>
-      <c r="AL2" s="48" t="s">
-        <v>454</v>
-      </c>
-      <c r="AM2" s="48" t="s">
-        <v>455</v>
-      </c>
-      <c r="AN2" s="48" t="s">
-        <v>456</v>
-      </c>
-      <c r="AP2" s="60"/>
-    </row>
-    <row r="3" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>457</v>
-      </c>
-      <c r="B3">
-        <v>2019</v>
-      </c>
-      <c r="C3" t="s">
-        <v>458</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>46</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>57</v>
-      </c>
-      <c r="J3">
-        <v>44</v>
-      </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3">
-        <v>6</v>
-      </c>
-      <c r="M3">
-        <v>260</v>
-      </c>
-      <c r="N3">
-        <v>110</v>
-      </c>
-      <c r="O3">
-        <v>7</v>
-      </c>
-      <c r="P3">
-        <v>72</v>
-      </c>
-      <c r="Q3">
-        <v>18</v>
-      </c>
-      <c r="R3">
-        <v>118</v>
-      </c>
-      <c r="S3">
-        <v>7</v>
-      </c>
-      <c r="V3">
-        <v>7</v>
-      </c>
-      <c r="W3">
-        <v>49</v>
-      </c>
-      <c r="X3">
-        <v>67</v>
-      </c>
-      <c r="Y3">
-        <v>22</v>
-      </c>
-      <c r="Z3">
-        <v>22</v>
-      </c>
-      <c r="AA3">
-        <v>17</v>
-      </c>
-      <c r="AB3">
-        <v>2</v>
-      </c>
-      <c r="AC3">
-        <v>90</v>
-      </c>
-      <c r="AD3">
-        <v>19</v>
-      </c>
-      <c r="AE3">
-        <v>5</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <v>4</v>
-      </c>
-      <c r="AK3">
-        <v>11</v>
-      </c>
-      <c r="AN3">
-        <v>160</v>
-      </c>
-      <c r="AP3" s="49" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4">
-        <v>2020</v>
-      </c>
-      <c r="C4" t="s">
-        <v>458</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>47</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>50</v>
-      </c>
-      <c r="J4">
-        <v>43</v>
-      </c>
-      <c r="K4">
-        <v>8</v>
-      </c>
-      <c r="L4">
-        <v>6</v>
-      </c>
-      <c r="M4">
-        <v>259</v>
-      </c>
-      <c r="N4">
-        <v>109</v>
-      </c>
-      <c r="O4">
-        <v>7</v>
-      </c>
-      <c r="P4">
-        <v>63</v>
-      </c>
-      <c r="Q4">
-        <v>18</v>
-      </c>
-      <c r="R4">
-        <v>120</v>
-      </c>
-      <c r="S4">
-        <v>7</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>49</v>
-      </c>
-      <c r="X4">
-        <v>71</v>
-      </c>
-      <c r="Y4">
-        <v>22</v>
-      </c>
-      <c r="Z4">
-        <v>23</v>
-      </c>
-      <c r="AA4">
-        <v>14</v>
-      </c>
-      <c r="AB4">
-        <v>2</v>
-      </c>
-      <c r="AC4">
-        <v>101</v>
-      </c>
-      <c r="AD4">
-        <v>18</v>
-      </c>
-      <c r="AE4">
-        <v>5</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>3</v>
-      </c>
-      <c r="AK4">
-        <v>11</v>
-      </c>
-      <c r="AN4">
-        <v>157</v>
-      </c>
-      <c r="AP4" s="49" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>457</v>
-      </c>
-      <c r="B5">
-        <v>2030</v>
-      </c>
-      <c r="C5" t="s">
-        <v>458</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>49</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>45</v>
-      </c>
-      <c r="J5">
-        <v>44</v>
-      </c>
-      <c r="K5">
-        <v>8</v>
-      </c>
-      <c r="L5">
-        <v>6</v>
-      </c>
-      <c r="M5">
-        <v>259</v>
-      </c>
-      <c r="N5">
-        <v>111</v>
-      </c>
-      <c r="O5">
-        <v>8</v>
-      </c>
-      <c r="P5">
-        <v>62</v>
-      </c>
-      <c r="Q5">
-        <v>18</v>
-      </c>
-      <c r="R5">
-        <v>119</v>
-      </c>
-      <c r="S5">
-        <v>8</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>49</v>
-      </c>
-      <c r="X5">
-        <v>79</v>
-      </c>
-      <c r="Y5">
-        <v>23</v>
-      </c>
-      <c r="Z5">
-        <v>24</v>
-      </c>
-      <c r="AA5">
-        <v>13</v>
-      </c>
-      <c r="AB5">
-        <v>2</v>
-      </c>
-      <c r="AC5">
-        <v>104</v>
-      </c>
-      <c r="AD5">
-        <v>18</v>
-      </c>
-      <c r="AE5">
-        <v>5</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>1</v>
-      </c>
-      <c r="AJ5">
-        <v>4</v>
-      </c>
-      <c r="AK5">
-        <v>11</v>
-      </c>
-      <c r="AN5">
-        <v>159</v>
-      </c>
-      <c r="AP5" s="49"/>
-    </row>
-    <row r="6" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>457</v>
-      </c>
-      <c r="B6">
-        <v>2040</v>
-      </c>
-      <c r="C6" t="s">
-        <v>458</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>52</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>44</v>
-      </c>
-      <c r="J6">
-        <v>44</v>
-      </c>
-      <c r="K6">
-        <v>8</v>
-      </c>
-      <c r="L6">
-        <v>7</v>
-      </c>
-      <c r="M6">
-        <v>259</v>
-      </c>
-      <c r="N6">
-        <v>113</v>
-      </c>
-      <c r="O6">
-        <v>8</v>
-      </c>
-      <c r="P6">
-        <v>63</v>
-      </c>
-      <c r="Q6">
-        <v>18</v>
-      </c>
-      <c r="R6">
-        <v>118</v>
-      </c>
-      <c r="S6">
-        <v>8</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>49</v>
-      </c>
-      <c r="X6">
-        <v>87</v>
-      </c>
-      <c r="Y6">
-        <v>24</v>
-      </c>
-      <c r="Z6">
-        <v>22</v>
-      </c>
-      <c r="AA6">
-        <v>13</v>
-      </c>
-      <c r="AB6">
-        <v>2</v>
-      </c>
-      <c r="AC6">
-        <v>108</v>
-      </c>
-      <c r="AD6">
-        <v>19</v>
-      </c>
-      <c r="AE6">
-        <v>6</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
-        <v>4</v>
-      </c>
-      <c r="AK6">
-        <v>11</v>
-      </c>
-      <c r="AN6">
-        <v>160</v>
-      </c>
-      <c r="AP6" s="49"/>
-    </row>
-    <row r="7" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>457</v>
-      </c>
-      <c r="B7">
-        <v>2050</v>
-      </c>
-      <c r="C7" t="s">
-        <v>458</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>56</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>43</v>
-      </c>
-      <c r="J7">
-        <v>44</v>
-      </c>
-      <c r="K7">
-        <v>8</v>
-      </c>
-      <c r="L7">
-        <v>8</v>
-      </c>
-      <c r="M7">
-        <v>258</v>
-      </c>
-      <c r="N7">
-        <v>116</v>
-      </c>
-      <c r="O7">
-        <v>8</v>
-      </c>
-      <c r="P7">
-        <v>64</v>
-      </c>
-      <c r="Q7">
-        <v>18</v>
-      </c>
-      <c r="R7">
-        <v>116</v>
-      </c>
-      <c r="S7">
-        <v>9</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>49</v>
-      </c>
-      <c r="X7">
-        <v>96</v>
-      </c>
-      <c r="Y7">
-        <v>24</v>
-      </c>
-      <c r="Z7">
-        <v>21</v>
-      </c>
-      <c r="AA7">
-        <v>12</v>
-      </c>
-      <c r="AB7">
-        <v>2</v>
-      </c>
-      <c r="AC7">
-        <v>112</v>
-      </c>
-      <c r="AD7">
-        <v>20</v>
-      </c>
-      <c r="AE7">
-        <v>7</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>1</v>
-      </c>
-      <c r="AJ7">
-        <v>4</v>
-      </c>
-      <c r="AK7">
-        <v>11</v>
-      </c>
-      <c r="AN7">
-        <v>162</v>
-      </c>
-      <c r="AP7" s="49"/>
-    </row>
-    <row r="8" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>461</v>
-      </c>
-      <c r="B8">
-        <v>2019</v>
-      </c>
-      <c r="C8" t="s">
-        <v>458</v>
-      </c>
-      <c r="D8">
-        <v>113</v>
-      </c>
-      <c r="E8">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>63</v>
-      </c>
-      <c r="G8">
-        <v>22</v>
-      </c>
-      <c r="I8">
-        <v>93</v>
-      </c>
-      <c r="J8">
-        <v>27</v>
-      </c>
-      <c r="K8">
-        <v>43</v>
-      </c>
-      <c r="L8">
-        <v>198</v>
-      </c>
-      <c r="M8">
-        <v>349</v>
-      </c>
-      <c r="N8">
-        <v>462</v>
-      </c>
-      <c r="O8">
-        <v>18</v>
-      </c>
-      <c r="P8">
-        <v>59</v>
-      </c>
-      <c r="Q8">
-        <v>14</v>
-      </c>
-      <c r="R8">
-        <v>126</v>
-      </c>
-      <c r="S8">
-        <v>58</v>
-      </c>
-      <c r="V8">
-        <v>3</v>
-      </c>
-      <c r="W8">
-        <v>19</v>
-      </c>
-      <c r="X8">
-        <v>236</v>
-      </c>
-      <c r="Y8">
-        <v>58</v>
-      </c>
-      <c r="Z8">
-        <v>145</v>
-      </c>
-      <c r="AA8">
-        <v>51</v>
-      </c>
-      <c r="AB8">
-        <v>34</v>
-      </c>
-      <c r="AC8">
-        <v>154</v>
-      </c>
-      <c r="AD8">
-        <v>330</v>
-      </c>
-      <c r="AE8">
-        <v>64</v>
-      </c>
-      <c r="AG8">
-        <v>12</v>
-      </c>
-      <c r="AI8">
-        <v>7</v>
-      </c>
-      <c r="AJ8">
-        <v>96</v>
-      </c>
-      <c r="AK8">
-        <v>36</v>
-      </c>
-      <c r="AN8">
-        <v>82</v>
-      </c>
-      <c r="AP8" s="49" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>461</v>
-      </c>
-      <c r="B9">
-        <v>2020</v>
-      </c>
-      <c r="C9" t="s">
-        <v>458</v>
-      </c>
-      <c r="D9">
-        <v>80</v>
-      </c>
-      <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="F9">
-        <v>48</v>
-      </c>
-      <c r="G9">
-        <v>17</v>
-      </c>
-      <c r="I9">
-        <v>67</v>
-      </c>
-      <c r="J9">
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <v>30</v>
-      </c>
-      <c r="L9">
-        <v>137</v>
-      </c>
-      <c r="M9">
-        <v>267</v>
-      </c>
-      <c r="N9">
-        <v>335</v>
-      </c>
-      <c r="O9">
-        <v>16</v>
-      </c>
-      <c r="P9">
-        <v>52</v>
-      </c>
-      <c r="Q9">
-        <v>12</v>
-      </c>
-      <c r="R9">
-        <v>109</v>
-      </c>
-      <c r="S9">
-        <v>42</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>19</v>
-      </c>
-      <c r="X9">
-        <v>188</v>
-      </c>
-      <c r="Y9">
-        <v>35</v>
-      </c>
-      <c r="Z9">
-        <v>131</v>
-      </c>
-      <c r="AA9">
-        <v>33</v>
-      </c>
-      <c r="AB9">
-        <v>26</v>
-      </c>
-      <c r="AC9">
-        <v>124</v>
-      </c>
-      <c r="AD9">
-        <v>221</v>
-      </c>
-      <c r="AE9">
-        <v>42</v>
-      </c>
-      <c r="AG9">
-        <v>8</v>
-      </c>
-      <c r="AI9">
-        <v>7</v>
-      </c>
-      <c r="AJ9">
-        <v>66</v>
-      </c>
-      <c r="AK9">
-        <v>29</v>
-      </c>
-      <c r="AN9">
-        <v>61</v>
-      </c>
-      <c r="AP9" s="49"/>
-    </row>
-    <row r="10" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>461</v>
-      </c>
-      <c r="B10">
-        <v>2030</v>
-      </c>
-      <c r="C10" t="s">
-        <v>458</v>
-      </c>
-      <c r="D10">
-        <v>74</v>
-      </c>
-      <c r="E10">
-        <v>30</v>
-      </c>
-      <c r="F10">
-        <v>36</v>
-      </c>
-      <c r="G10">
-        <v>16</v>
-      </c>
-      <c r="I10">
-        <v>62</v>
-      </c>
-      <c r="J10">
-        <v>24</v>
-      </c>
-      <c r="K10">
-        <v>26</v>
-      </c>
-      <c r="L10">
-        <v>124</v>
-      </c>
-      <c r="M10">
-        <v>269</v>
-      </c>
-      <c r="N10">
-        <v>309</v>
-      </c>
-      <c r="O10">
-        <v>17</v>
-      </c>
-      <c r="P10">
-        <v>49</v>
-      </c>
-      <c r="Q10">
-        <v>12</v>
-      </c>
-      <c r="R10">
-        <v>103</v>
-      </c>
-      <c r="S10">
-        <v>42</v>
-      </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="W10">
-        <v>22</v>
-      </c>
-      <c r="X10">
-        <v>172</v>
-      </c>
-      <c r="Y10">
-        <v>36</v>
-      </c>
-      <c r="Z10">
-        <v>125</v>
-      </c>
-      <c r="AA10">
-        <v>30</v>
-      </c>
-      <c r="AB10">
-        <v>23</v>
-      </c>
-      <c r="AC10">
-        <v>116</v>
-      </c>
-      <c r="AD10">
-        <v>210</v>
-      </c>
-      <c r="AE10">
-        <v>38</v>
-      </c>
-      <c r="AG10">
-        <v>9</v>
-      </c>
-      <c r="AI10">
-        <v>7</v>
-      </c>
-      <c r="AJ10">
-        <v>62</v>
-      </c>
-      <c r="AK10">
-        <v>30</v>
-      </c>
-      <c r="AN10">
-        <v>66</v>
-      </c>
-      <c r="AP10" s="49"/>
-    </row>
-    <row r="11" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>461</v>
-      </c>
-      <c r="B11">
-        <v>2040</v>
-      </c>
-      <c r="C11" t="s">
-        <v>458</v>
-      </c>
-      <c r="D11">
-        <v>75</v>
-      </c>
-      <c r="E11">
-        <v>33</v>
-      </c>
-      <c r="F11">
-        <v>35</v>
-      </c>
-      <c r="G11">
-        <v>15</v>
-      </c>
-      <c r="I11">
-        <v>60</v>
-      </c>
-      <c r="J11">
-        <v>26</v>
-      </c>
-      <c r="K11">
-        <v>24</v>
-      </c>
-      <c r="L11">
-        <v>117</v>
-      </c>
-      <c r="M11">
-        <v>273</v>
-      </c>
-      <c r="N11">
-        <v>299</v>
-      </c>
-      <c r="O11">
-        <v>17</v>
-      </c>
-      <c r="P11">
-        <v>53</v>
-      </c>
-      <c r="Q11">
-        <v>16</v>
-      </c>
-      <c r="R11">
-        <v>107</v>
-      </c>
-      <c r="S11">
-        <v>45</v>
-      </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <v>25</v>
-      </c>
-      <c r="X11">
-        <v>180</v>
-      </c>
-      <c r="Y11">
-        <v>37</v>
-      </c>
-      <c r="Z11">
-        <v>128</v>
-      </c>
-      <c r="AA11">
-        <v>30</v>
-      </c>
-      <c r="AB11">
-        <v>22</v>
-      </c>
-      <c r="AC11">
-        <v>119</v>
-      </c>
-      <c r="AD11">
-        <v>219</v>
-      </c>
-      <c r="AE11">
-        <v>39</v>
-      </c>
-      <c r="AG11">
-        <v>9</v>
-      </c>
-      <c r="AI11">
-        <v>8</v>
-      </c>
-      <c r="AJ11">
-        <v>63</v>
-      </c>
-      <c r="AK11">
-        <v>32</v>
-      </c>
-      <c r="AN11">
-        <v>67</v>
-      </c>
-      <c r="AP11" s="49"/>
-    </row>
-    <row r="12" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>461</v>
-      </c>
-      <c r="B12">
-        <v>2050</v>
-      </c>
-      <c r="C12" t="s">
-        <v>458</v>
-      </c>
-      <c r="D12">
-        <v>79</v>
-      </c>
-      <c r="E12">
-        <v>36</v>
-      </c>
-      <c r="F12">
-        <v>34</v>
-      </c>
-      <c r="G12">
-        <v>15</v>
-      </c>
-      <c r="I12">
-        <v>61</v>
-      </c>
-      <c r="J12">
-        <v>28</v>
-      </c>
-      <c r="K12">
-        <v>25</v>
-      </c>
-      <c r="L12">
-        <v>132</v>
-      </c>
-      <c r="M12">
-        <v>289</v>
-      </c>
-      <c r="N12">
-        <v>321</v>
-      </c>
-      <c r="O12">
-        <v>18</v>
-      </c>
-      <c r="P12">
-        <v>56</v>
-      </c>
-      <c r="Q12">
-        <v>16</v>
-      </c>
-      <c r="R12">
-        <v>113</v>
-      </c>
-      <c r="S12">
-        <v>45</v>
-      </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
-      <c r="W12">
-        <v>28</v>
-      </c>
-      <c r="X12">
-        <v>181</v>
-      </c>
-      <c r="Y12">
-        <v>43</v>
-      </c>
-      <c r="Z12">
-        <v>132</v>
-      </c>
-      <c r="AA12">
-        <v>29</v>
-      </c>
-      <c r="AB12">
-        <v>22</v>
-      </c>
-      <c r="AC12">
-        <v>124</v>
-      </c>
-      <c r="AD12">
-        <v>217</v>
-      </c>
-      <c r="AE12">
-        <v>42</v>
-      </c>
-      <c r="AG12">
-        <v>9</v>
-      </c>
-      <c r="AI12">
-        <v>8</v>
-      </c>
-      <c r="AJ12">
-        <v>66</v>
-      </c>
-      <c r="AK12">
-        <v>35</v>
-      </c>
-      <c r="AN12">
-        <v>68</v>
-      </c>
-      <c r="AP12" s="49"/>
-    </row>
-    <row r="14" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="49" t="s">
-        <v>463</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:A55">
-    <sortCondition ref="A21"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
